--- a/tst.xlsx
+++ b/tst.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,10 +483,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46011.97013636221</v>
+        <v>46012.00663381386</v>
       </c>
       <c r="B2" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>104.746025176778</v>
+        <v>102.7864362949354</v>
       </c>
       <c r="F2" t="n">
-        <v>100.2914098052421</v>
+        <v>103.6176719758972</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -508,6 +508,636 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>46012.00663600706</v>
+      </c>
+      <c r="B3" t="n">
+        <v>378</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>102.2417100825305</v>
+      </c>
+      <c r="F3" t="n">
+        <v>103.5172487110082</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46012.00663817136</v>
+      </c>
+      <c r="B4" t="n">
+        <v>565</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>102.5133369128759</v>
+      </c>
+      <c r="F4" t="n">
+        <v>103.6627063416886</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46012.00664034129</v>
+      </c>
+      <c r="B5" t="n">
+        <v>753</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>102.4680167000933</v>
+      </c>
+      <c r="F5" t="n">
+        <v>102.7521702381491</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>46012.00664250603</v>
+      </c>
+      <c r="B6" t="n">
+        <v>940</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>101.787619615254</v>
+      </c>
+      <c r="F6" t="n">
+        <v>102.3644131340291</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>46012.00664485617</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1143</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>101.3463428410157</v>
+      </c>
+      <c r="F7" t="n">
+        <v>102.4700755743888</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>46012.00664701962</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100.927456385969</v>
+      </c>
+      <c r="F8" t="n">
+        <v>101.8146031367819</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>46012.00664915697</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>101.3201510496824</v>
+      </c>
+      <c r="F9" t="n">
+        <v>101.808546349741</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>46012.00665132901</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1702</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100.6510293254725</v>
+      </c>
+      <c r="F10" t="n">
+        <v>101.4892014435307</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>46012.00665367036</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100.9768495825334</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100.5091010188796</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>46012.0066558497</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2093</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100.7251152063457</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100.8274453861191</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>46012.00665798802</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2278</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100.0138012012044</v>
+      </c>
+      <c r="F13" t="n">
+        <v>99.91583107641959</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>46012.00666017957</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2467</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100.378633553606</v>
+      </c>
+      <c r="F14" t="n">
+        <v>99.71872289754515</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>46012.00666216741</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2639</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.28545945632472</v>
+      </c>
+      <c r="F15" t="n">
+        <v>99.13564467296975</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>46012.00666434348</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2827</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99.79118000140878</v>
+      </c>
+      <c r="F16" t="n">
+        <v>99.26840504381893</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>46012.00666650035</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3013</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>99.50682228806215</v>
+      </c>
+      <c r="F17" t="n">
+        <v>99.02671514116204</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>46012.00666866509</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3200</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>98.99461218779736</v>
+      </c>
+      <c r="F18" t="n">
+        <v>98.90496479787578</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>46012.00667082192</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3386</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>98.6011456908239</v>
+      </c>
+      <c r="F19" t="n">
+        <v>98.12518495745687</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>46012.00667297755</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3573</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>98.82210925962336</v>
+      </c>
+      <c r="F20" t="n">
+        <v>97.83944941013125</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>46012.0066751592</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>-19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98.62932765572002</v>
+      </c>
+      <c r="F21" t="n">
+        <v>97.4504664320563</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>46012.00667748795</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3962</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>98.24053960292007</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.55702531265624</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>46012.00668196869</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4350</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>-21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>97.3490239078785</v>
+      </c>
+      <c r="F23" t="n">
+        <v>96.13854733236398</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>neg_from_zero</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/tst.xlsx
+++ b/tst.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,10 +483,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46012.00663381386</v>
+        <v>46012.01422065473</v>
       </c>
       <c r="B2" t="n">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -497,14 +497,14 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102.7864362949354</v>
+        <v>106.0833496567461</v>
       </c>
       <c r="F2" t="n">
-        <v>103.6176719758972</v>
+        <v>101.9506776425101</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -513,10 +513,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46012.00663600706</v>
+        <v>46012.01422092302</v>
       </c>
       <c r="B3" t="n">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,17 +524,17 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.2417100825305</v>
+        <v>105.7361620642228</v>
       </c>
       <c r="F3" t="n">
-        <v>103.5172487110082</v>
+        <v>102.1734151635409</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -543,10 +543,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46012.00663817136</v>
+        <v>46012.0142212184</v>
       </c>
       <c r="B4" t="n">
-        <v>565</v>
+        <v>68</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,17 +554,17 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>102.5133369128759</v>
+        <v>106.2159301242967</v>
       </c>
       <c r="F4" t="n">
-        <v>103.6627063416886</v>
+        <v>102.6532226072595</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -573,10 +573,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46012.00664034129</v>
+        <v>46012.01422142678</v>
       </c>
       <c r="B5" t="n">
-        <v>753</v>
+        <v>86</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,17 +584,17 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>102.4680167000933</v>
+        <v>106.3849077443947</v>
       </c>
       <c r="F5" t="n">
-        <v>102.7521702381491</v>
+        <v>102.0826464576153</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -603,10 +603,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46012.00664250603</v>
+        <v>46012.01422184935</v>
       </c>
       <c r="B6" t="n">
-        <v>940</v>
+        <v>122</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,17 +614,17 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>101.787619615254</v>
+        <v>105.9403989904745</v>
       </c>
       <c r="F6" t="n">
-        <v>102.3644131340291</v>
+        <v>102.0630584059465</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -633,10 +633,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46012.00664485617</v>
+        <v>46012.01422223129</v>
       </c>
       <c r="B7" t="n">
-        <v>1143</v>
+        <v>156</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,17 +644,17 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>101.3463428410157</v>
+        <v>105.7602343991284</v>
       </c>
       <c r="F7" t="n">
-        <v>102.4700755743888</v>
+        <v>102.572727105883</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -663,10 +663,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46012.00664701962</v>
+        <v>46012.01422260778</v>
       </c>
       <c r="B8" t="n">
-        <v>1330</v>
+        <v>188</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,17 +674,17 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>100.927456385969</v>
+        <v>105.5896737765985</v>
       </c>
       <c r="F8" t="n">
-        <v>101.8146031367819</v>
+        <v>102.2983542072287</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -693,10 +693,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46012.00664915697</v>
+        <v>46012.01422299629</v>
       </c>
       <c r="B9" t="n">
-        <v>1515</v>
+        <v>222</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,17 +704,17 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>101.3201510496824</v>
+        <v>106.2354953251137</v>
       </c>
       <c r="F9" t="n">
-        <v>101.808546349741</v>
+        <v>102.6783969126668</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -723,10 +723,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46012.00665132901</v>
+        <v>46012.01422337861</v>
       </c>
       <c r="B10" t="n">
-        <v>1702</v>
+        <v>255</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,17 +734,17 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>100.6510293254725</v>
+        <v>105.8268755497045</v>
       </c>
       <c r="F10" t="n">
-        <v>101.4892014435307</v>
+        <v>102.7545695537997</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -753,10 +753,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46012.00665367036</v>
+        <v>46012.0142237785</v>
       </c>
       <c r="B11" t="n">
-        <v>1905</v>
+        <v>290</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,17 +764,17 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>100.9768495825334</v>
+        <v>106.4376552641854</v>
       </c>
       <c r="F11" t="n">
-        <v>100.5091010188796</v>
+        <v>102.2055781623917</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -783,10 +783,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46012.0066558497</v>
+        <v>46012.01422417867</v>
       </c>
       <c r="B12" t="n">
-        <v>2093</v>
+        <v>324</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,17 +794,17 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>100.7251152063457</v>
+        <v>106.4544895666329</v>
       </c>
       <c r="F12" t="n">
-        <v>100.8274453861191</v>
+        <v>102.9293687702914</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -813,10 +813,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46012.00665798802</v>
+        <v>46012.01422456103</v>
       </c>
       <c r="B13" t="n">
-        <v>2278</v>
+        <v>357</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,17 +824,17 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0138012012044</v>
+        <v>106.008344688648</v>
       </c>
       <c r="F13" t="n">
-        <v>99.91583107641959</v>
+        <v>102.4177041547326</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -843,10 +843,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46012.00666017957</v>
+        <v>46012.01422497245</v>
       </c>
       <c r="B14" t="n">
-        <v>2467</v>
+        <v>393</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,17 +854,17 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>100.378633553606</v>
+        <v>106.6455738083239</v>
       </c>
       <c r="F14" t="n">
-        <v>99.71872289754515</v>
+        <v>102.6316772492435</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -873,10 +873,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46012.00666216741</v>
+        <v>46012.01422534322</v>
       </c>
       <c r="B15" t="n">
-        <v>2639</v>
+        <v>425</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,17 +884,17 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>99.28545945632472</v>
+        <v>105.7986482562325</v>
       </c>
       <c r="F15" t="n">
-        <v>99.13564467296975</v>
+        <v>102.4207115508294</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -903,10 +903,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46012.00666434348</v>
+        <v>46012.01422581931</v>
       </c>
       <c r="B16" t="n">
-        <v>2827</v>
+        <v>466</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,17 +914,17 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>99.79118000140878</v>
+        <v>106.5750036844176</v>
       </c>
       <c r="F16" t="n">
-        <v>99.26840504381893</v>
+        <v>102.9640080366589</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -933,10 +933,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46012.00666650035</v>
+        <v>46012.01422624753</v>
       </c>
       <c r="B17" t="n">
-        <v>3013</v>
+        <v>502</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,17 +944,17 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>99.50682228806215</v>
+        <v>106.5531890920704</v>
       </c>
       <c r="F17" t="n">
-        <v>99.02671514116204</v>
+        <v>103.1218372973428</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -963,10 +963,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46012.00666866509</v>
+        <v>46012.0142266531</v>
       </c>
       <c r="B18" t="n">
-        <v>3200</v>
+        <v>537</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,17 +974,17 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>98.99461218779736</v>
+        <v>106.2993128314219</v>
       </c>
       <c r="F18" t="n">
-        <v>98.90496479787578</v>
+        <v>103.3950404907559</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -993,10 +993,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46012.00667082192</v>
+        <v>46012.01422721456</v>
       </c>
       <c r="B19" t="n">
-        <v>3386</v>
+        <v>586</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,17 +1004,17 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>98.6011456908239</v>
+        <v>106.1640007860986</v>
       </c>
       <c r="F19" t="n">
-        <v>98.12518495745687</v>
+        <v>103.0142027794601</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1023,10 +1023,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46012.00667297755</v>
+        <v>46012.01422737692</v>
       </c>
       <c r="B20" t="n">
-        <v>3573</v>
+        <v>600</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,17 +1034,17 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>98.82210925962336</v>
+        <v>106.621033210604</v>
       </c>
       <c r="F20" t="n">
-        <v>97.83944941013125</v>
+        <v>103.0919923534361</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1053,10 +1053,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46012.0066751592</v>
+        <v>46012.01422778697</v>
       </c>
       <c r="B21" t="n">
-        <v>3761</v>
+        <v>635</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,17 +1064,17 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>98.62932765572002</v>
+        <v>106.6686422246995</v>
       </c>
       <c r="F21" t="n">
-        <v>97.4504664320563</v>
+        <v>103.0794117815836</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1083,10 +1083,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46012.00667748795</v>
+        <v>46012.01422818641</v>
       </c>
       <c r="B22" t="n">
-        <v>3962</v>
+        <v>671</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,17 +1094,17 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>98.24053960292007</v>
+        <v>106.5259962999435</v>
       </c>
       <c r="F22" t="n">
-        <v>96.55702531265624</v>
+        <v>102.5756677250334</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1113,10 +1113,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46012.00668196869</v>
+        <v>46012.01422858072</v>
       </c>
       <c r="B23" t="n">
-        <v>4350</v>
+        <v>704</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,20 +1124,9050 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>97.3490239078785</v>
+        <v>106.0625306343645</v>
       </c>
       <c r="F23" t="n">
-        <v>96.13854733236398</v>
+        <v>102.8452677981362</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>neg_from_zero</t>
+          <t>pos_from_zero</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>46012.01422899176</v>
+      </c>
+      <c r="B24" t="n">
+        <v>740</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>105.9275998631471</v>
+      </c>
+      <c r="F24" t="n">
+        <v>102.8154297179035</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>46012.0142293849</v>
+      </c>
+      <c r="B25" t="n">
+        <v>774</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>105.9608011678535</v>
+      </c>
+      <c r="F25" t="n">
+        <v>102.8857687755404</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>46012.01422982611</v>
+      </c>
+      <c r="B26" t="n">
+        <v>811</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>106.5079890469813</v>
+      </c>
+      <c r="F26" t="n">
+        <v>102.9998300707349</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>46012.01423025436</v>
+      </c>
+      <c r="B27" t="n">
+        <v>849</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>106.2540826945431</v>
+      </c>
+      <c r="F27" t="n">
+        <v>102.8708047590572</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>46012.01423067146</v>
+      </c>
+      <c r="B28" t="n">
+        <v>885</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>106.1614702782786</v>
+      </c>
+      <c r="F28" t="n">
+        <v>103.6230808122867</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>46012.01423111721</v>
+      </c>
+      <c r="B29" t="n">
+        <v>924</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>106.5527155466453</v>
+      </c>
+      <c r="F29" t="n">
+        <v>103.3209845115782</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>46012.01423154589</v>
+      </c>
+      <c r="B30" t="n">
+        <v>960</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>106.0847515095426</v>
+      </c>
+      <c r="F30" t="n">
+        <v>103.4645660751643</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>46012.014231918</v>
+      </c>
+      <c r="B31" t="n">
+        <v>992</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>106.0842808312791</v>
+      </c>
+      <c r="F31" t="n">
+        <v>103.1352238234059</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>46012.01423231301</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>106.9175101690033</v>
+      </c>
+      <c r="F32" t="n">
+        <v>103.4169564512365</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>46012.01423268369</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>106.4909131424831</v>
+      </c>
+      <c r="F33" t="n">
+        <v>103.4807003459769</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>46012.01423284073</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>106.7791775827446</v>
+      </c>
+      <c r="F34" t="n">
+        <v>103.5800709284093</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>46012.01423315334</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>106.169780619865</v>
+      </c>
+      <c r="F35" t="n">
+        <v>102.8518875411885</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>46012.0142335588</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1134</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>106.2612014399337</v>
+      </c>
+      <c r="F36" t="n">
+        <v>103.1071363647193</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>46012.01423395383</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1169</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>106.1610082621504</v>
+      </c>
+      <c r="F37" t="n">
+        <v>103.8011844376873</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>46012.01423435893</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>106.8300031344083</v>
+      </c>
+      <c r="F38" t="n">
+        <v>103.1914450948205</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>46012.01423477108</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1239</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>106.6119687247487</v>
+      </c>
+      <c r="F39" t="n">
+        <v>103.2903304127741</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>46012.01423521052</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1277</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>7</v>
+      </c>
+      <c r="E40" t="n">
+        <v>106.8733737475811</v>
+      </c>
+      <c r="F40" t="n">
+        <v>103.3721140610485</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>46012.01423563727</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1314</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>106.225147125975</v>
+      </c>
+      <c r="F41" t="n">
+        <v>103.1775260832232</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>46012.01423608968</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1353</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>106.5222599869153</v>
+      </c>
+      <c r="F42" t="n">
+        <v>103.2113587486321</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>46012.01423651793</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>106.5452400828793</v>
+      </c>
+      <c r="F43" t="n">
+        <v>103.8623548777512</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>46012.01423694783</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1427</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>106.3589882869004</v>
+      </c>
+      <c r="F44" t="n">
+        <v>103.1993897803673</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>46012.01423719094</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1448</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>106.956155014379</v>
+      </c>
+      <c r="F45" t="n">
+        <v>103.4980549101453</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>46012.01423742273</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1468</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>106.0483874112285</v>
+      </c>
+      <c r="F46" t="n">
+        <v>103.0432970528158</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>46012.01423785234</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1505</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>106.0643538889607</v>
+      </c>
+      <c r="F47" t="n">
+        <v>103.6375195916426</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46012.01423829216</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1544</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>106.7430528973141</v>
+      </c>
+      <c r="F48" t="n">
+        <v>103.4458741379231</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>46012.01423873794</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1582</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>106.0098927925108</v>
+      </c>
+      <c r="F49" t="n">
+        <v>103.4182222287414</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>46012.01423920095</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1622</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>106.9367735222692</v>
+      </c>
+      <c r="F50" t="n">
+        <v>103.5782992213142</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>46012.0142396433</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>106.9054087492823</v>
+      </c>
+      <c r="F51" t="n">
+        <v>103.9211904852359</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>46012.01424001126</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1691</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>105.9399058910494</v>
+      </c>
+      <c r="F52" t="n">
+        <v>103.789895379178</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>46012.01424039323</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>106.6031287934181</v>
+      </c>
+      <c r="F53" t="n">
+        <v>103.6149884270466</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>46012.01424078684</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1759</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>106.180640402126</v>
+      </c>
+      <c r="F54" t="n">
+        <v>103.7271450063098</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>46012.01424119833</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1794</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>106.016548399774</v>
+      </c>
+      <c r="F55" t="n">
+        <v>103.5289941810233</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>46012.01424158104</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>106.3497989274727</v>
+      </c>
+      <c r="F56" t="n">
+        <v>104.0549672907805</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>46012.01424200334</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1864</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>106.7616087036047</v>
+      </c>
+      <c r="F57" t="n">
+        <v>103.3713391255729</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>46012.01424242018</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>106.3749446411612</v>
+      </c>
+      <c r="F58" t="n">
+        <v>103.2928992837359</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>46012.01424281418</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>106.7756797679742</v>
+      </c>
+      <c r="F59" t="n">
+        <v>103.9899898772001</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>46012.01424323674</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>11</v>
+      </c>
+      <c r="E60" t="n">
+        <v>106.148713947227</v>
+      </c>
+      <c r="F60" t="n">
+        <v>103.763314582281</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>46012.01424363075</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>11</v>
+      </c>
+      <c r="E61" t="n">
+        <v>106.4465563820307</v>
+      </c>
+      <c r="F61" t="n">
+        <v>103.28117030311</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>46012.01424402597</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2039</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>11</v>
+      </c>
+      <c r="E62" t="n">
+        <v>106.5866887505177</v>
+      </c>
+      <c r="F62" t="n">
+        <v>103.6710873012559</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>46012.01424445626</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2075</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>11</v>
+      </c>
+      <c r="E63" t="n">
+        <v>106.5876952479046</v>
+      </c>
+      <c r="F63" t="n">
+        <v>103.6650102315347</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>46012.0142448383</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2109</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>11</v>
+      </c>
+      <c r="E64" t="n">
+        <v>105.7949506694994</v>
+      </c>
+      <c r="F64" t="n">
+        <v>103.4609294143505</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>46012.01424526927</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2146</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>12</v>
+      </c>
+      <c r="E65" t="n">
+        <v>105.7969468061724</v>
+      </c>
+      <c r="F65" t="n">
+        <v>104.0675184379809</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>46012.01424566278</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2180</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>12</v>
+      </c>
+      <c r="E66" t="n">
+        <v>106.6399920376361</v>
+      </c>
+      <c r="F66" t="n">
+        <v>103.9709711094401</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>46012.01424611564</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>12</v>
+      </c>
+      <c r="E67" t="n">
+        <v>106.0493543929674</v>
+      </c>
+      <c r="F67" t="n">
+        <v>103.1975147702635</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>46012.01424653228</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2255</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>12</v>
+      </c>
+      <c r="E68" t="n">
+        <v>106.6015390704125</v>
+      </c>
+      <c r="F68" t="n">
+        <v>104.0861237565519</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>46012.01424694329</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2291</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>12</v>
+      </c>
+      <c r="E69" t="n">
+        <v>105.7896464692786</v>
+      </c>
+      <c r="F69" t="n">
+        <v>103.624077510125</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46012.01424737963</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2328</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>13</v>
+      </c>
+      <c r="E70" t="n">
+        <v>105.7522547838278</v>
+      </c>
+      <c r="F70" t="n">
+        <v>103.8968671826566</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46012.01424778478</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2364</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>13</v>
+      </c>
+      <c r="E71" t="n">
+        <v>106.4282011638445</v>
+      </c>
+      <c r="F71" t="n">
+        <v>103.2622648945079</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46012.01424821471</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2401</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>13</v>
+      </c>
+      <c r="E72" t="n">
+        <v>106.1152633946134</v>
+      </c>
+      <c r="F72" t="n">
+        <v>103.6804929538839</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46012.01424863138</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2436</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>13</v>
+      </c>
+      <c r="E73" t="n">
+        <v>105.8828896665629</v>
+      </c>
+      <c r="F73" t="n">
+        <v>103.9994246677535</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46012.01424903683</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2472</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>13</v>
+      </c>
+      <c r="E74" t="n">
+        <v>106.0179816560233</v>
+      </c>
+      <c r="F74" t="n">
+        <v>103.3344315878401</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46012.01424947436</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2510</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>14</v>
+      </c>
+      <c r="E75" t="n">
+        <v>106.1090707762539</v>
+      </c>
+      <c r="F75" t="n">
+        <v>103.8472652019123</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46012.01424989071</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>14</v>
+      </c>
+      <c r="E76" t="n">
+        <v>105.7459366293236</v>
+      </c>
+      <c r="F76" t="n">
+        <v>103.4232527913156</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46012.01425035388</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2586</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>14</v>
+      </c>
+      <c r="E77" t="n">
+        <v>106.5118226293915</v>
+      </c>
+      <c r="F77" t="n">
+        <v>103.7543343627012</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46012.01425077055</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2621</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>14</v>
+      </c>
+      <c r="E78" t="n">
+        <v>105.9287339331675</v>
+      </c>
+      <c r="F78" t="n">
+        <v>103.6149935445174</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46012.01425117005</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>14</v>
+      </c>
+      <c r="E79" t="n">
+        <v>105.5855311880015</v>
+      </c>
+      <c r="F79" t="n">
+        <v>103.3146336467274</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46012.0142515867</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2692</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>15</v>
+      </c>
+      <c r="E80" t="n">
+        <v>105.7745250989077</v>
+      </c>
+      <c r="F80" t="n">
+        <v>103.6697593766733</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46012.01425199185</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2727</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>15</v>
+      </c>
+      <c r="E81" t="n">
+        <v>105.6392758720609</v>
+      </c>
+      <c r="F81" t="n">
+        <v>103.2930270206345</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46012.01425243195</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2765</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>15</v>
+      </c>
+      <c r="E82" t="n">
+        <v>105.4492509608929</v>
+      </c>
+      <c r="F82" t="n">
+        <v>103.6936842657147</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46012.01425262872</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2782</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>105.5932170111709</v>
+      </c>
+      <c r="F83" t="n">
+        <v>103.9632297145758</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46012.01425287173</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2803</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>15</v>
+      </c>
+      <c r="E84" t="n">
+        <v>106.2062982989522</v>
+      </c>
+      <c r="F84" t="n">
+        <v>103.1225361397473</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46012.01425328414</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2838</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>15</v>
+      </c>
+      <c r="E85" t="n">
+        <v>105.5546318989308</v>
+      </c>
+      <c r="F85" t="n">
+        <v>103.7099061214679</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46012.01425371211</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>16</v>
+      </c>
+      <c r="E86" t="n">
+        <v>105.498562849458</v>
+      </c>
+      <c r="F86" t="n">
+        <v>103.1612894689856</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46012.014254117</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2911</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>16</v>
+      </c>
+      <c r="E87" t="n">
+        <v>106.1883634872294</v>
+      </c>
+      <c r="F87" t="n">
+        <v>103.5880137146466</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46012.01425455719</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2948</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>16</v>
+      </c>
+      <c r="E88" t="n">
+        <v>105.6912979945446</v>
+      </c>
+      <c r="F88" t="n">
+        <v>103.7881591010051</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46012.01425499701</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2987</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>16</v>
+      </c>
+      <c r="E89" t="n">
+        <v>105.990079355313</v>
+      </c>
+      <c r="F89" t="n">
+        <v>103.1794082215876</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46012.01425543123</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3024</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>16</v>
+      </c>
+      <c r="E90" t="n">
+        <v>105.2443578860136</v>
+      </c>
+      <c r="F90" t="n">
+        <v>103.4055028448293</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46012.01425585948</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3061</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>17</v>
+      </c>
+      <c r="E91" t="n">
+        <v>105.5350417404008</v>
+      </c>
+      <c r="F91" t="n">
+        <v>103.4262476799927</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46012.01425626461</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3097</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>17</v>
+      </c>
+      <c r="E92" t="n">
+        <v>105.8049318699886</v>
+      </c>
+      <c r="F92" t="n">
+        <v>103.6171857740473</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46012.01425673946</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3137</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>17</v>
+      </c>
+      <c r="E93" t="n">
+        <v>106.0192004736867</v>
+      </c>
+      <c r="F93" t="n">
+        <v>103.0242105313696</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>46012.01425714455</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3172</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>17</v>
+      </c>
+      <c r="E94" t="n">
+        <v>105.4012022940948</v>
+      </c>
+      <c r="F94" t="n">
+        <v>103.2486803088216</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>46012.01425754971</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3207</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>17</v>
+      </c>
+      <c r="E95" t="n">
+        <v>105.823878891456</v>
+      </c>
+      <c r="F95" t="n">
+        <v>103.1413765215849</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>46012.01425797227</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3243</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>18</v>
+      </c>
+      <c r="E96" t="n">
+        <v>105.1132076455724</v>
+      </c>
+      <c r="F96" t="n">
+        <v>103.3230851383968</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>46012.01425840057</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3281</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>18</v>
+      </c>
+      <c r="E97" t="n">
+        <v>105.3042740618969</v>
+      </c>
+      <c r="F97" t="n">
+        <v>103.1338141102734</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>46012.01425884059</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3319</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>18</v>
+      </c>
+      <c r="E98" t="n">
+        <v>105.0900715496959</v>
+      </c>
+      <c r="F98" t="n">
+        <v>103.7583055014714</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>46012.01425925727</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3355</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>18</v>
+      </c>
+      <c r="E99" t="n">
+        <v>105.2425881994985</v>
+      </c>
+      <c r="F99" t="n">
+        <v>103.6765121369447</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>46012.01425967991</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3391</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>18</v>
+      </c>
+      <c r="E100" t="n">
+        <v>105.3085644731752</v>
+      </c>
+      <c r="F100" t="n">
+        <v>102.8454086111996</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>46012.01426011365</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3428</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>19</v>
+      </c>
+      <c r="E101" t="n">
+        <v>105.7143300360456</v>
+      </c>
+      <c r="F101" t="n">
+        <v>103.6092598023895</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>46012.01426051412</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3463</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>19</v>
+      </c>
+      <c r="E102" t="n">
+        <v>105.6427296221669</v>
+      </c>
+      <c r="F102" t="n">
+        <v>103.6787030476863</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>46012.01426076918</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3485</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>19</v>
+      </c>
+      <c r="E103" t="n">
+        <v>105.496274712084</v>
+      </c>
+      <c r="F103" t="n">
+        <v>102.9052996376413</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>46012.01426097262</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3503</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>19</v>
+      </c>
+      <c r="E104" t="n">
+        <v>105.1113064518963</v>
+      </c>
+      <c r="F104" t="n">
+        <v>102.9414839585831</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>46012.01426138928</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3539</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>19</v>
+      </c>
+      <c r="E105" t="n">
+        <v>104.9832430145781</v>
+      </c>
+      <c r="F105" t="n">
+        <v>102.7638772236605</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>46012.01426181279</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3575</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>19</v>
+      </c>
+      <c r="E106" t="n">
+        <v>104.9165356573741</v>
+      </c>
+      <c r="F106" t="n">
+        <v>103.6672096502126</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>46012.01426221787</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3610</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20</v>
+      </c>
+      <c r="E107" t="n">
+        <v>104.7583041472909</v>
+      </c>
+      <c r="F107" t="n">
+        <v>103.4424969353192</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>46012.01426262344</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3646</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20</v>
+      </c>
+      <c r="E108" t="n">
+        <v>104.9034579897233</v>
+      </c>
+      <c r="F108" t="n">
+        <v>103.0576419183442</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>46012.01426308799</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3686</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20</v>
+      </c>
+      <c r="E109" t="n">
+        <v>105.3539406928916</v>
+      </c>
+      <c r="F109" t="n">
+        <v>103.6021824818926</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>46012.01426350457</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3722</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20</v>
+      </c>
+      <c r="E110" t="n">
+        <v>104.9055560891045</v>
+      </c>
+      <c r="F110" t="n">
+        <v>103.2997495805999</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>46012.01426393879</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3759</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20</v>
+      </c>
+      <c r="E111" t="n">
+        <v>104.454933478179</v>
+      </c>
+      <c r="F111" t="n">
+        <v>102.8508771062175</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>46012.01426437571</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3797</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20</v>
+      </c>
+      <c r="E112" t="n">
+        <v>105.218652681967</v>
+      </c>
+      <c r="F112" t="n">
+        <v>103.1056560635092</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>46012.01426479949</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3834</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20</v>
+      </c>
+      <c r="E113" t="n">
+        <v>104.742233915672</v>
+      </c>
+      <c r="F113" t="n">
+        <v>103.2467034857912</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>46012.01426522758</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3870</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20</v>
+      </c>
+      <c r="E114" t="n">
+        <v>104.2067663672921</v>
+      </c>
+      <c r="F114" t="n">
+        <v>103.0546546848057</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>46012.01426566198</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3908</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20</v>
+      </c>
+      <c r="E115" t="n">
+        <v>104.5998141063617</v>
+      </c>
+      <c r="F115" t="n">
+        <v>103.2935025060914</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>46012.01426609022</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3945</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20</v>
+      </c>
+      <c r="E116" t="n">
+        <v>104.2026295700268</v>
+      </c>
+      <c r="F116" t="n">
+        <v>103.3721567808921</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>46012.01426669808</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3997</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20</v>
+      </c>
+      <c r="E117" t="n">
+        <v>104.050390769093</v>
+      </c>
+      <c r="F117" t="n">
+        <v>102.5543121581662</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>46012.01426717266</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4039</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20</v>
+      </c>
+      <c r="E118" t="n">
+        <v>104.5055512966251</v>
+      </c>
+      <c r="F118" t="n">
+        <v>103.0092146813098</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>46012.01426758479</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4074</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20</v>
+      </c>
+      <c r="E119" t="n">
+        <v>104.0934626089548</v>
+      </c>
+      <c r="F119" t="n">
+        <v>102.4235477931188</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>46012.01426801266</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4111</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20</v>
+      </c>
+      <c r="E120" t="n">
+        <v>104.6945525756572</v>
+      </c>
+      <c r="F120" t="n">
+        <v>102.5183524713532</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>46012.01426843674</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4147</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20</v>
+      </c>
+      <c r="E121" t="n">
+        <v>104.3443826696521</v>
+      </c>
+      <c r="F121" t="n">
+        <v>102.8595835117101</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>46012.01426888775</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4186</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20</v>
+      </c>
+      <c r="E122" t="n">
+        <v>104.1105161796406</v>
+      </c>
+      <c r="F122" t="n">
+        <v>102.7893053085303</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>46012.01426931637</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4223</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>21</v>
+      </c>
+      <c r="E123" t="n">
+        <v>104.1574690114751</v>
+      </c>
+      <c r="F123" t="n">
+        <v>103.1067560620247</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>46012.01426974074</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4261</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>21</v>
+      </c>
+      <c r="E124" t="n">
+        <v>103.7817829486669</v>
+      </c>
+      <c r="F124" t="n">
+        <v>102.8541599864413</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>46012.0142701294</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4294</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>21</v>
+      </c>
+      <c r="E125" t="n">
+        <v>103.7639026267103</v>
+      </c>
+      <c r="F125" t="n">
+        <v>102.5024256092747</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>46012.01427051133</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4327</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>21</v>
+      </c>
+      <c r="E126" t="n">
+        <v>104.1462769630797</v>
+      </c>
+      <c r="F126" t="n">
+        <v>102.3761887312666</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>46012.01427088877</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4359</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>21</v>
+      </c>
+      <c r="E127" t="n">
+        <v>103.7393317471335</v>
+      </c>
+      <c r="F127" t="n">
+        <v>102.7970049428597</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>46012.01427115462</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4383</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>21</v>
+      </c>
+      <c r="E128" t="n">
+        <v>103.4584545456791</v>
+      </c>
+      <c r="F128" t="n">
+        <v>102.4808676742134</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>46012.01427129391</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4395</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>21</v>
+      </c>
+      <c r="E129" t="n">
+        <v>104.3651936215713</v>
+      </c>
+      <c r="F129" t="n">
+        <v>103.0070424193541</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>46012.01427167629</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4427</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>21</v>
+      </c>
+      <c r="E130" t="n">
+        <v>103.387726158296</v>
+      </c>
+      <c r="F130" t="n">
+        <v>102.1922947887443</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>46012.01427205293</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4460</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>21</v>
+      </c>
+      <c r="E131" t="n">
+        <v>103.5272420046657</v>
+      </c>
+      <c r="F131" t="n">
+        <v>102.8803899943365</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>46012.01427242329</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4492</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>21</v>
+      </c>
+      <c r="E132" t="n">
+        <v>104.0905650769614</v>
+      </c>
+      <c r="F132" t="n">
+        <v>102.7943327283715</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>46012.0142728011</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4524</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>21</v>
+      </c>
+      <c r="E133" t="n">
+        <v>103.5258611412364</v>
+      </c>
+      <c r="F133" t="n">
+        <v>102.0400041276753</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>46012.01427316</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4556</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>21</v>
+      </c>
+      <c r="E134" t="n">
+        <v>103.9378345166554</v>
+      </c>
+      <c r="F134" t="n">
+        <v>102.5535795658426</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>46012.01427355344</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4590</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>21</v>
+      </c>
+      <c r="E135" t="n">
+        <v>103.6602435043182</v>
+      </c>
+      <c r="F135" t="n">
+        <v>102.8029255289994</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>46012.01427393084</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4623</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>21</v>
+      </c>
+      <c r="E136" t="n">
+        <v>103.6470074941487</v>
+      </c>
+      <c r="F136" t="n">
+        <v>101.7890549913812</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>46012.0142743128</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4656</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>21</v>
+      </c>
+      <c r="E137" t="n">
+        <v>103.7548194389776</v>
+      </c>
+      <c r="F137" t="n">
+        <v>102.0461832824465</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>46012.01427468536</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4688</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>21</v>
+      </c>
+      <c r="E138" t="n">
+        <v>103.5465284872954</v>
+      </c>
+      <c r="F138" t="n">
+        <v>102.6516711377547</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>46012.01427507925</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4721</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>21</v>
+      </c>
+      <c r="E139" t="n">
+        <v>102.960117182597</v>
+      </c>
+      <c r="F139" t="n">
+        <v>101.7922973891578</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>46012.01427544634</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4754</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>21</v>
+      </c>
+      <c r="E140" t="n">
+        <v>102.8776255494665</v>
+      </c>
+      <c r="F140" t="n">
+        <v>102.1954264156631</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>46012.01427581181</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4785</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>21</v>
+      </c>
+      <c r="E141" t="n">
+        <v>102.9889974991654</v>
+      </c>
+      <c r="F141" t="n">
+        <v>102.2130944187836</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>46012.01427620532</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4819</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>22</v>
+      </c>
+      <c r="E142" t="n">
+        <v>103.3743874533184</v>
+      </c>
+      <c r="F142" t="n">
+        <v>101.7740944833306</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>46012.01427655952</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4850</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>22</v>
+      </c>
+      <c r="E143" t="n">
+        <v>103.2373033308101</v>
+      </c>
+      <c r="F143" t="n">
+        <v>101.8005189274448</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>46012.01427695614</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4884</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>22</v>
+      </c>
+      <c r="E144" t="n">
+        <v>103.0327242838823</v>
+      </c>
+      <c r="F144" t="n">
+        <v>102.4045576128166</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>46012.01427733838</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4917</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>22</v>
+      </c>
+      <c r="E145" t="n">
+        <v>103.332213625643</v>
+      </c>
+      <c r="F145" t="n">
+        <v>101.5546204636896</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>46012.0142777436</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4952</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>22</v>
+      </c>
+      <c r="E146" t="n">
+        <v>102.8473497034246</v>
+      </c>
+      <c r="F146" t="n">
+        <v>101.6993090337991</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>46012.01427801111</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4975</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>22</v>
+      </c>
+      <c r="E147" t="n">
+        <v>102.3851124034617</v>
+      </c>
+      <c r="F147" t="n">
+        <v>102.1668197937023</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>46012.01427814972</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4987</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>22</v>
+      </c>
+      <c r="E148" t="n">
+        <v>102.9974805999785</v>
+      </c>
+      <c r="F148" t="n">
+        <v>101.6441150069274</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>46012.01427854365</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5021</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>22</v>
+      </c>
+      <c r="E149" t="n">
+        <v>103.0406890000885</v>
+      </c>
+      <c r="F149" t="n">
+        <v>101.8948790825928</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>46012.0142789091</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5053</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>22</v>
+      </c>
+      <c r="E150" t="n">
+        <v>102.6693541958213</v>
+      </c>
+      <c r="F150" t="n">
+        <v>101.3158267276977</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>46012.01427931419</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5087</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>22</v>
+      </c>
+      <c r="E151" t="n">
+        <v>102.2549391116982</v>
+      </c>
+      <c r="F151" t="n">
+        <v>102.1494633003266</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>46012.01427969087</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5121</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>22</v>
+      </c>
+      <c r="E152" t="n">
+        <v>103.0229125686593</v>
+      </c>
+      <c r="F152" t="n">
+        <v>101.7728807857636</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>46012.01428007242</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5153</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>22</v>
+      </c>
+      <c r="E153" t="n">
+        <v>102.8933496194598</v>
+      </c>
+      <c r="F153" t="n">
+        <v>101.7709720680478</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>46012.01428042008</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5184</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>22</v>
+      </c>
+      <c r="E154" t="n">
+        <v>102.1507226946754</v>
+      </c>
+      <c r="F154" t="n">
+        <v>101.279663560267</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>46012.01428056532</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5196</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>22</v>
+      </c>
+      <c r="E155" t="n">
+        <v>102.2896882379238</v>
+      </c>
+      <c r="F155" t="n">
+        <v>102.0374946360119</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>46012.01428088903</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5224</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>22</v>
+      </c>
+      <c r="E156" t="n">
+        <v>102.7255391463725</v>
+      </c>
+      <c r="F156" t="n">
+        <v>101.9655557086753</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>46012.01428127139</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5257</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>22</v>
+      </c>
+      <c r="E157" t="n">
+        <v>102.7666242774011</v>
+      </c>
+      <c r="F157" t="n">
+        <v>101.2749281973454</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>46012.01428165995</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5290</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>22</v>
+      </c>
+      <c r="E158" t="n">
+        <v>102.0549274657873</v>
+      </c>
+      <c r="F158" t="n">
+        <v>101.1271995774049</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>46012.01428205348</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5324</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>22</v>
+      </c>
+      <c r="E159" t="n">
+        <v>102.5230992638984</v>
+      </c>
+      <c r="F159" t="n">
+        <v>101.8679584535183</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>46012.01428243092</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5357</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>22</v>
+      </c>
+      <c r="E160" t="n">
+        <v>102.0867829348543</v>
+      </c>
+      <c r="F160" t="n">
+        <v>101.563736056043</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>46012.01428282444</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5391</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>23</v>
+      </c>
+      <c r="E161" t="n">
+        <v>101.7713798590328</v>
+      </c>
+      <c r="F161" t="n">
+        <v>101.8314938648973</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>46012.01428321795</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5425</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>23</v>
+      </c>
+      <c r="E162" t="n">
+        <v>102.416323263895</v>
+      </c>
+      <c r="F162" t="n">
+        <v>101.8352989761088</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>46012.01428360702</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5459</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>23</v>
+      </c>
+      <c r="E163" t="n">
+        <v>102.2988880824348</v>
+      </c>
+      <c r="F163" t="n">
+        <v>101.6989171618925</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>46012.01428398465</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5491</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>23</v>
+      </c>
+      <c r="E164" t="n">
+        <v>101.4506913504636</v>
+      </c>
+      <c r="F164" t="n">
+        <v>101.5133302859507</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>46012.0142843666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5524</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>23</v>
+      </c>
+      <c r="E165" t="n">
+        <v>101.6950442630384</v>
+      </c>
+      <c r="F165" t="n">
+        <v>101.6662495663432</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>46012.0142847668</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5558</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>23</v>
+      </c>
+      <c r="E166" t="n">
+        <v>102.1001149904507</v>
+      </c>
+      <c r="F166" t="n">
+        <v>101.5568476532804</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>46012.01428516036</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5592</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>23</v>
+      </c>
+      <c r="E167" t="n">
+        <v>102.0434515778706</v>
+      </c>
+      <c r="F167" t="n">
+        <v>100.9167592868413</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>46012.01428554889</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5626</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>23</v>
+      </c>
+      <c r="E168" t="n">
+        <v>101.955296644763</v>
+      </c>
+      <c r="F168" t="n">
+        <v>100.7154332986926</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>46012.01428593126</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5659</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>23</v>
+      </c>
+      <c r="E169" t="n">
+        <v>101.9758700570066</v>
+      </c>
+      <c r="F169" t="n">
+        <v>101.4236400521</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>46012.01428632486</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5693</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>23</v>
+      </c>
+      <c r="E170" t="n">
+        <v>101.260286859917</v>
+      </c>
+      <c r="F170" t="n">
+        <v>101.3382247026035</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>46012.01428671345</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5727</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>23</v>
+      </c>
+      <c r="E171" t="n">
+        <v>101.4324351485182</v>
+      </c>
+      <c r="F171" t="n">
+        <v>100.7834633553263</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>46012.01428710697</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5761</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>23</v>
+      </c>
+      <c r="E172" t="n">
+        <v>101.7013658422521</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100.6622046931399</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>46012.01428749538</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5795</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>23</v>
+      </c>
+      <c r="E173" t="n">
+        <v>100.8634690639394</v>
+      </c>
+      <c r="F173" t="n">
+        <v>100.5839686827264</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>46012.01428788855</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5828</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>23</v>
+      </c>
+      <c r="E174" t="n">
+        <v>101.1025624515667</v>
+      </c>
+      <c r="F174" t="n">
+        <v>101.2118562404776</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>46012.01428822459</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5857</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>23</v>
+      </c>
+      <c r="E175" t="n">
+        <v>101.6842070359329</v>
+      </c>
+      <c r="F175" t="n">
+        <v>100.5889029785459</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>46012.01428855549</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>23</v>
+      </c>
+      <c r="E176" t="n">
+        <v>101.3011425604931</v>
+      </c>
+      <c r="F176" t="n">
+        <v>100.6712599462249</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>46012.01428888016</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5914</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>23</v>
+      </c>
+      <c r="E177" t="n">
+        <v>101.5859078893323</v>
+      </c>
+      <c r="F177" t="n">
+        <v>100.7714038878749</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>46012.01428920466</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5942</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>23</v>
+      </c>
+      <c r="E178" t="n">
+        <v>101.4892187601196</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100.3141999962801</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>46012.01428954532</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5971</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>23</v>
+      </c>
+      <c r="E179" t="n">
+        <v>101.4625107345305</v>
+      </c>
+      <c r="F179" t="n">
+        <v>100.3390229160425</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>46012.01428990377</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6003</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>24</v>
+      </c>
+      <c r="E180" t="n">
+        <v>101.3928578383126</v>
+      </c>
+      <c r="F180" t="n">
+        <v>100.3848983387464</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>46012.01429023977</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6032</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>24</v>
+      </c>
+      <c r="E181" t="n">
+        <v>100.4809326879319</v>
+      </c>
+      <c r="F181" t="n">
+        <v>100.5156046954362</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>46012.01429063632</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6066</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>24</v>
+      </c>
+      <c r="E182" t="n">
+        <v>101.0339028800385</v>
+      </c>
+      <c r="F182" t="n">
+        <v>100.3500752761419</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>46012.01429098944</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6097</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>24</v>
+      </c>
+      <c r="E183" t="n">
+        <v>100.8500901235328</v>
+      </c>
+      <c r="F183" t="n">
+        <v>100.5069445767898</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>46012.01429134821</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6128</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>24</v>
+      </c>
+      <c r="E184" t="n">
+        <v>100.5673870467535</v>
+      </c>
+      <c r="F184" t="n">
+        <v>100.5310747448199</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>46012.0142916883</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6157</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>24</v>
+      </c>
+      <c r="E185" t="n">
+        <v>100.3791421067641</v>
+      </c>
+      <c r="F185" t="n">
+        <v>100.62482923887</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>46012.0142920702</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6189</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>24</v>
+      </c>
+      <c r="E186" t="n">
+        <v>100.0613047529431</v>
+      </c>
+      <c r="F186" t="n">
+        <v>100.7984812292392</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>46012.01429242908</v>
+      </c>
+      <c r="B187" t="n">
+        <v>6221</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>24</v>
+      </c>
+      <c r="E187" t="n">
+        <v>100.534950892809</v>
+      </c>
+      <c r="F187" t="n">
+        <v>100.5503109104351</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>46012.01429278294</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6251</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>24</v>
+      </c>
+      <c r="E188" t="n">
+        <v>100.677584110151</v>
+      </c>
+      <c r="F188" t="n">
+        <v>100.4609712956552</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>46012.01429315365</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6283</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>24</v>
+      </c>
+      <c r="E189" t="n">
+        <v>100.2368495863833</v>
+      </c>
+      <c r="F189" t="n">
+        <v>99.81834257827458</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>46012.01429351915</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6315</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>24</v>
+      </c>
+      <c r="E190" t="n">
+        <v>100.4724541777789</v>
+      </c>
+      <c r="F190" t="n">
+        <v>100.0356494294548</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>46012.01429387793</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6346</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>24</v>
+      </c>
+      <c r="E191" t="n">
+        <v>100.0610954519552</v>
+      </c>
+      <c r="F191" t="n">
+        <v>100.512787242036</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>46012.01429422558</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6376</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>24</v>
+      </c>
+      <c r="E192" t="n">
+        <v>100.4064958979289</v>
+      </c>
+      <c r="F192" t="n">
+        <v>99.92481040820968</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>46012.01429457915</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6407</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>24</v>
+      </c>
+      <c r="E193" t="n">
+        <v>99.93465750287245</v>
+      </c>
+      <c r="F193" t="n">
+        <v>99.99197290137579</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>46012.01429483378</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6428</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>24</v>
+      </c>
+      <c r="E194" t="n">
+        <v>99.98456096518393</v>
+      </c>
+      <c r="F194" t="n">
+        <v>99.85042838631097</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>46012.01429496105</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6440</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>24</v>
+      </c>
+      <c r="E195" t="n">
+        <v>99.68652078217586</v>
+      </c>
+      <c r="F195" t="n">
+        <v>99.95993478873145</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>46012.01429532545</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6471</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>24</v>
+      </c>
+      <c r="E196" t="n">
+        <v>100.438110895712</v>
+      </c>
+      <c r="F196" t="n">
+        <v>100.1758160952716</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>46012.01429566146</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6500</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>24</v>
+      </c>
+      <c r="E197" t="n">
+        <v>100.3423652651671</v>
+      </c>
+      <c r="F197" t="n">
+        <v>100.0752216085358</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>46012.01429602075</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6531</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>24</v>
+      </c>
+      <c r="E198" t="n">
+        <v>99.67801062793487</v>
+      </c>
+      <c r="F198" t="n">
+        <v>99.96597950782359</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>46012.01429638624</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6563</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>24</v>
+      </c>
+      <c r="E199" t="n">
+        <v>99.31364156449708</v>
+      </c>
+      <c r="F199" t="n">
+        <v>99.66241041897659</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>46012.0142967682</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6595</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>25</v>
+      </c>
+      <c r="E200" t="n">
+        <v>99.67854993657754</v>
+      </c>
+      <c r="F200" t="n">
+        <v>99.91244129605579</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>46012.01429711893</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6626</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>25</v>
+      </c>
+      <c r="E201" t="n">
+        <v>99.84246629426433</v>
+      </c>
+      <c r="F201" t="n">
+        <v>99.75685802794258</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>46012.01429746494</v>
+      </c>
+      <c r="B202" t="n">
+        <v>6656</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>25</v>
+      </c>
+      <c r="E202" t="n">
+        <v>99.5701017718052</v>
+      </c>
+      <c r="F202" t="n">
+        <v>99.46571246266348</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>46012.0142978287</v>
+      </c>
+      <c r="B203" t="n">
+        <v>6687</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>25</v>
+      </c>
+      <c r="E203" t="n">
+        <v>99.53752686215294</v>
+      </c>
+      <c r="F203" t="n">
+        <v>100.1108211875776</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>46012.01429818747</v>
+      </c>
+      <c r="B204" t="n">
+        <v>6718</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>25</v>
+      </c>
+      <c r="E204" t="n">
+        <v>99.79940886655065</v>
+      </c>
+      <c r="F204" t="n">
+        <v>99.33873257016604</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>46012.01429856111</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6750</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>25</v>
+      </c>
+      <c r="E205" t="n">
+        <v>99.0236342527386</v>
+      </c>
+      <c r="F205" t="n">
+        <v>99.64151548748771</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>46012.01429893143</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6782</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>25</v>
+      </c>
+      <c r="E206" t="n">
+        <v>99.5087388670936</v>
+      </c>
+      <c r="F206" t="n">
+        <v>99.41928912791549</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>46012.01429928996</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6813</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>25</v>
+      </c>
+      <c r="E207" t="n">
+        <v>99.63172219438387</v>
+      </c>
+      <c r="F207" t="n">
+        <v>99.79365116151172</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>46012.01429964416</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6844</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>25</v>
+      </c>
+      <c r="E208" t="n">
+        <v>99.42612745300086</v>
+      </c>
+      <c r="F208" t="n">
+        <v>99.22726570673588</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>46012.01430000297</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6875</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>25</v>
+      </c>
+      <c r="E209" t="n">
+        <v>98.89004621918005</v>
+      </c>
+      <c r="F209" t="n">
+        <v>98.98555060177857</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>46012.01430036852</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6907</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>25</v>
+      </c>
+      <c r="E210" t="n">
+        <v>98.87282801934876</v>
+      </c>
+      <c r="F210" t="n">
+        <v>99.39443800095637</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>46012.01430073856</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6938</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>25</v>
+      </c>
+      <c r="E211" t="n">
+        <v>99.41560252013302</v>
+      </c>
+      <c r="F211" t="n">
+        <v>98.95086488366249</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>46012.01430107455</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6968</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>25</v>
+      </c>
+      <c r="E212" t="n">
+        <v>98.92138842614906</v>
+      </c>
+      <c r="F212" t="n">
+        <v>99.46868470689154</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>46012.01430145061</v>
+      </c>
+      <c r="B213" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>25</v>
+      </c>
+      <c r="E213" t="n">
+        <v>98.63865912554057</v>
+      </c>
+      <c r="F213" t="n">
+        <v>99.49365196409269</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>46012.01430182097</v>
+      </c>
+      <c r="B214" t="n">
+        <v>7033</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>25</v>
+      </c>
+      <c r="E214" t="n">
+        <v>98.87396529054921</v>
+      </c>
+      <c r="F214" t="n">
+        <v>98.99841780332736</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>46012.01430219196</v>
+      </c>
+      <c r="B215" t="n">
+        <v>7064</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>25</v>
+      </c>
+      <c r="E215" t="n">
+        <v>98.97332052171502</v>
+      </c>
+      <c r="F215" t="n">
+        <v>98.71867264932632</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>46012.01430255711</v>
+      </c>
+      <c r="B216" t="n">
+        <v>7096</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>25</v>
+      </c>
+      <c r="E216" t="n">
+        <v>99.00551874763924</v>
+      </c>
+      <c r="F216" t="n">
+        <v>99.44164310247221</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>46012.0143029159</v>
+      </c>
+      <c r="B217" t="n">
+        <v>7127</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>25</v>
+      </c>
+      <c r="E217" t="n">
+        <v>98.30042977530123</v>
+      </c>
+      <c r="F217" t="n">
+        <v>99.05656292577454</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>46012.01430328068</v>
+      </c>
+      <c r="B218" t="n">
+        <v>7159</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>25</v>
+      </c>
+      <c r="E218" t="n">
+        <v>98.30818045586145</v>
+      </c>
+      <c r="F218" t="n">
+        <v>99.5486789312648</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>46012.01430367419</v>
+      </c>
+      <c r="B219" t="n">
+        <v>7192</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>26</v>
+      </c>
+      <c r="E219" t="n">
+        <v>98.58541628005514</v>
+      </c>
+      <c r="F219" t="n">
+        <v>98.59808864402676</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>46012.01430406772</v>
+      </c>
+      <c r="B220" t="n">
+        <v>7226</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>26</v>
+      </c>
+      <c r="E220" t="n">
+        <v>98.2502112615207</v>
+      </c>
+      <c r="F220" t="n">
+        <v>99.35233882019376</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>46012.01430444416</v>
+      </c>
+      <c r="B221" t="n">
+        <v>7259</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>26</v>
+      </c>
+      <c r="E221" t="n">
+        <v>98.39324339474523</v>
+      </c>
+      <c r="F221" t="n">
+        <v>99.26305250325152</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>46012.01430491306</v>
+      </c>
+      <c r="B222" t="n">
+        <v>7299</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>26</v>
+      </c>
+      <c r="E222" t="n">
+        <v>98.52652453869911</v>
+      </c>
+      <c r="F222" t="n">
+        <v>99.39824389406994</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>46012.01430538766</v>
+      </c>
+      <c r="B223" t="n">
+        <v>7340</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>26</v>
+      </c>
+      <c r="E223" t="n">
+        <v>98.37580631692293</v>
+      </c>
+      <c r="F223" t="n">
+        <v>99.30867144786986</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>46012.01430577552</v>
+      </c>
+      <c r="B224" t="n">
+        <v>7374</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>26</v>
+      </c>
+      <c r="E224" t="n">
+        <v>98.60702569637428</v>
+      </c>
+      <c r="F224" t="n">
+        <v>98.92872253937693</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>46012.01430616904</v>
+      </c>
+      <c r="B225" t="n">
+        <v>7408</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>26</v>
+      </c>
+      <c r="E225" t="n">
+        <v>98.36920229815473</v>
+      </c>
+      <c r="F225" t="n">
+        <v>98.77773353139084</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>46012.0143065454</v>
+      </c>
+      <c r="B226" t="n">
+        <v>7441</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>26</v>
+      </c>
+      <c r="E226" t="n">
+        <v>98.41747411311422</v>
+      </c>
+      <c r="F226" t="n">
+        <v>98.77950009895014</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>46012.0143069389</v>
+      </c>
+      <c r="B227" t="n">
+        <v>7474</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>26</v>
+      </c>
+      <c r="E227" t="n">
+        <v>98.42080923194126</v>
+      </c>
+      <c r="F227" t="n">
+        <v>98.93382306639873</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>46012.0143073209</v>
+      </c>
+      <c r="B228" t="n">
+        <v>7508</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>26</v>
+      </c>
+      <c r="E228" t="n">
+        <v>97.93402476503866</v>
+      </c>
+      <c r="F228" t="n">
+        <v>98.40733248888051</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>46012.01430770875</v>
+      </c>
+      <c r="B229" t="n">
+        <v>7540</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>26</v>
+      </c>
+      <c r="E229" t="n">
+        <v>97.64475350619811</v>
+      </c>
+      <c r="F229" t="n">
+        <v>98.74540845469551</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>46012.01430809075</v>
+      </c>
+      <c r="B230" t="n">
+        <v>7574</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>26</v>
+      </c>
+      <c r="E230" t="n">
+        <v>98.10004650988063</v>
+      </c>
+      <c r="F230" t="n">
+        <v>98.58776606733156</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>46012.01430846707</v>
+      </c>
+      <c r="B231" t="n">
+        <v>7607</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>26</v>
+      </c>
+      <c r="E231" t="n">
+        <v>97.89972093062006</v>
+      </c>
+      <c r="F231" t="n">
+        <v>98.30115788600683</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>46012.0143088606</v>
+      </c>
+      <c r="B232" t="n">
+        <v>7641</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>26</v>
+      </c>
+      <c r="E232" t="n">
+        <v>97.28639344005211</v>
+      </c>
+      <c r="F232" t="n">
+        <v>98.27061966509909</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>46012.01430924359</v>
+      </c>
+      <c r="B233" t="n">
+        <v>7674</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>26</v>
+      </c>
+      <c r="E233" t="n">
+        <v>97.41926813690573</v>
+      </c>
+      <c r="F233" t="n">
+        <v>98.26475380608058</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>46012.0143096371</v>
+      </c>
+      <c r="B234" t="n">
+        <v>7707</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>26</v>
+      </c>
+      <c r="E234" t="n">
+        <v>97.62568073458941</v>
+      </c>
+      <c r="F234" t="n">
+        <v>98.04320159977902</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>46012.01431000752</v>
+      </c>
+      <c r="B235" t="n">
+        <v>7740</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>26</v>
+      </c>
+      <c r="E235" t="n">
+        <v>97.25629030915721</v>
+      </c>
+      <c r="F235" t="n">
+        <v>98.55961376433906</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>46012.01431039538</v>
+      </c>
+      <c r="B236" t="n">
+        <v>7773</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>26</v>
+      </c>
+      <c r="E236" t="n">
+        <v>97.67060634669372</v>
+      </c>
+      <c r="F236" t="n">
+        <v>97.89057444220659</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>46012.01431080048</v>
+      </c>
+      <c r="B237" t="n">
+        <v>7808</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>27</v>
+      </c>
+      <c r="E237" t="n">
+        <v>97.30729638104135</v>
+      </c>
+      <c r="F237" t="n">
+        <v>98.32735618790385</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>46012.0143111941</v>
+      </c>
+      <c r="B238" t="n">
+        <v>7842</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>27</v>
+      </c>
+      <c r="E238" t="n">
+        <v>97.2533868275254</v>
+      </c>
+      <c r="F238" t="n">
+        <v>97.95160717201169</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>46012.01431157947</v>
+      </c>
+      <c r="B239" t="n">
+        <v>7875</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>27</v>
+      </c>
+      <c r="E239" t="n">
+        <v>97.19757844618243</v>
+      </c>
+      <c r="F239" t="n">
+        <v>98.61094087764882</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>46012.01431196732</v>
+      </c>
+      <c r="B240" t="n">
+        <v>7909</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>27</v>
+      </c>
+      <c r="E240" t="n">
+        <v>97.30032291443123</v>
+      </c>
+      <c r="F240" t="n">
+        <v>98.36238129088865</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>46012.01431234927</v>
+      </c>
+      <c r="B241" t="n">
+        <v>7941</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>27</v>
+      </c>
+      <c r="E241" t="n">
+        <v>97.51482875954672</v>
+      </c>
+      <c r="F241" t="n">
+        <v>98.39523670110425</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>46012.01431273918</v>
+      </c>
+      <c r="B242" t="n">
+        <v>7975</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>27</v>
+      </c>
+      <c r="E242" t="n">
+        <v>96.97814215201667</v>
+      </c>
+      <c r="F242" t="n">
+        <v>97.59700146875636</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>46012.01431310971</v>
+      </c>
+      <c r="B243" t="n">
+        <v>8008</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>27</v>
+      </c>
+      <c r="E243" t="n">
+        <v>96.89202959236259</v>
+      </c>
+      <c r="F243" t="n">
+        <v>98.30793994270222</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>46012.01431348</v>
+      </c>
+      <c r="B244" t="n">
+        <v>8040</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>27</v>
+      </c>
+      <c r="E244" t="n">
+        <v>97.3365212133936</v>
+      </c>
+      <c r="F244" t="n">
+        <v>98.47152030637203</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>46012.01431386857</v>
+      </c>
+      <c r="B245" t="n">
+        <v>8073</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>27</v>
+      </c>
+      <c r="E245" t="n">
+        <v>96.84423976512227</v>
+      </c>
+      <c r="F245" t="n">
+        <v>98.22889588887874</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>46012.01431423892</v>
+      </c>
+      <c r="B246" t="n">
+        <v>8105</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>27</v>
+      </c>
+      <c r="E246" t="n">
+        <v>96.9141892771827</v>
+      </c>
+      <c r="F246" t="n">
+        <v>98.04844789363577</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>46012.01431463993</v>
+      </c>
+      <c r="B247" t="n">
+        <v>8140</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>27</v>
+      </c>
+      <c r="E247" t="n">
+        <v>96.52841548533637</v>
+      </c>
+      <c r="F247" t="n">
+        <v>97.62661563747265</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>46012.01431504497</v>
+      </c>
+      <c r="B248" t="n">
+        <v>8174</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>27</v>
+      </c>
+      <c r="E248" t="n">
+        <v>96.68408044224343</v>
+      </c>
+      <c r="F248" t="n">
+        <v>97.39866257699759</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>46012.01431542803</v>
+      </c>
+      <c r="B249" t="n">
+        <v>8208</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>27</v>
+      </c>
+      <c r="E249" t="n">
+        <v>96.52668138319505</v>
+      </c>
+      <c r="F249" t="n">
+        <v>98.01254235683639</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>46012.01431582154</v>
+      </c>
+      <c r="B250" t="n">
+        <v>8241</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>27</v>
+      </c>
+      <c r="E250" t="n">
+        <v>96.53772619599256</v>
+      </c>
+      <c r="F250" t="n">
+        <v>97.46265137277965</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>46012.01431619196</v>
+      </c>
+      <c r="B251" t="n">
+        <v>8274</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>27</v>
+      </c>
+      <c r="E251" t="n">
+        <v>96.54517227707792</v>
+      </c>
+      <c r="F251" t="n">
+        <v>97.39048637911837</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>46012.01431657539</v>
+      </c>
+      <c r="B252" t="n">
+        <v>8307</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>27</v>
+      </c>
+      <c r="E252" t="n">
+        <v>96.64505204926006</v>
+      </c>
+      <c r="F252" t="n">
+        <v>97.25557419031793</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>46012.01431696893</v>
+      </c>
+      <c r="B253" t="n">
+        <v>8341</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>27</v>
+      </c>
+      <c r="E253" t="n">
+        <v>96.36010815901027</v>
+      </c>
+      <c r="F253" t="n">
+        <v>97.75778225184453</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>46012.01431734525</v>
+      </c>
+      <c r="B254" t="n">
+        <v>8374</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>27</v>
+      </c>
+      <c r="E254" t="n">
+        <v>95.93766409285234</v>
+      </c>
+      <c r="F254" t="n">
+        <v>97.80176294861815</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>46012.01431776185</v>
+      </c>
+      <c r="B255" t="n">
+        <v>8410</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>28</v>
+      </c>
+      <c r="E255" t="n">
+        <v>95.98678573197346</v>
+      </c>
+      <c r="F255" t="n">
+        <v>97.58401093861589</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>46012.01431816403</v>
+      </c>
+      <c r="B256" t="n">
+        <v>8444</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>28</v>
+      </c>
+      <c r="E256" t="n">
+        <v>95.84528286461558</v>
+      </c>
+      <c r="F256" t="n">
+        <v>97.46692565027912</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>46012.01431854757</v>
+      </c>
+      <c r="B257" t="n">
+        <v>8478</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>28</v>
+      </c>
+      <c r="E257" t="n">
+        <v>95.95186356698443</v>
+      </c>
+      <c r="F257" t="n">
+        <v>97.38108836940162</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>46012.01431892947</v>
+      </c>
+      <c r="B258" t="n">
+        <v>8510</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>28</v>
+      </c>
+      <c r="E258" t="n">
+        <v>96.44896760248716</v>
+      </c>
+      <c r="F258" t="n">
+        <v>97.40132883651481</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>46012.01431931184</v>
+      </c>
+      <c r="B259" t="n">
+        <v>8543</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>28</v>
+      </c>
+      <c r="E259" t="n">
+        <v>96.38734399259734</v>
+      </c>
+      <c r="F259" t="n">
+        <v>97.82223763153443</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>46012.01431970041</v>
+      </c>
+      <c r="B260" t="n">
+        <v>8577</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>28</v>
+      </c>
+      <c r="E260" t="n">
+        <v>95.83347013324024</v>
+      </c>
+      <c r="F260" t="n">
+        <v>97.03939935856442</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>46012.01432010593</v>
+      </c>
+      <c r="B261" t="n">
+        <v>8612</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>28</v>
+      </c>
+      <c r="E261" t="n">
+        <v>95.54542697336952</v>
+      </c>
+      <c r="F261" t="n">
+        <v>97.46360727720359</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>46012.01432049455</v>
+      </c>
+      <c r="B262" t="n">
+        <v>8646</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>28</v>
+      </c>
+      <c r="E262" t="n">
+        <v>96.47249450648788</v>
+      </c>
+      <c r="F262" t="n">
+        <v>97.24200228112358</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>46012.01432088805</v>
+      </c>
+      <c r="B263" t="n">
+        <v>8679</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>28</v>
+      </c>
+      <c r="E263" t="n">
+        <v>96.07110942224455</v>
+      </c>
+      <c r="F263" t="n">
+        <v>97.64236190939435</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>46012.01432128871</v>
+      </c>
+      <c r="B264" t="n">
+        <v>8714</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>28</v>
+      </c>
+      <c r="E264" t="n">
+        <v>96.01940275747975</v>
+      </c>
+      <c r="F264" t="n">
+        <v>97.5835719703482</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>46012.01432168184</v>
+      </c>
+      <c r="B265" t="n">
+        <v>8748</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>28</v>
+      </c>
+      <c r="E265" t="n">
+        <v>96.26553383462249</v>
+      </c>
+      <c r="F265" t="n">
+        <v>96.9979978640585</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>46012.01432206462</v>
+      </c>
+      <c r="B266" t="n">
+        <v>8782</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>28</v>
+      </c>
+      <c r="E266" t="n">
+        <v>95.28522401209246</v>
+      </c>
+      <c r="F266" t="n">
+        <v>96.9208428403486</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>46012.01432246479</v>
+      </c>
+      <c r="B267" t="n">
+        <v>8815</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>28</v>
+      </c>
+      <c r="E267" t="n">
+        <v>95.34072152448414</v>
+      </c>
+      <c r="F267" t="n">
+        <v>97.40831848275344</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>46012.0143228583</v>
+      </c>
+      <c r="B268" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>28</v>
+      </c>
+      <c r="E268" t="n">
+        <v>95.72766177343814</v>
+      </c>
+      <c r="F268" t="n">
+        <v>96.92709832741599</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>46012.01432324731</v>
+      </c>
+      <c r="B269" t="n">
+        <v>8883</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>28</v>
+      </c>
+      <c r="E269" t="n">
+        <v>95.8139273132693</v>
+      </c>
+      <c r="F269" t="n">
+        <v>97.44737737233935</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>46012.01432362925</v>
+      </c>
+      <c r="B270" t="n">
+        <v>8917</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>28</v>
+      </c>
+      <c r="E270" t="n">
+        <v>95.23353481314959</v>
+      </c>
+      <c r="F270" t="n">
+        <v>97.25951990510136</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>46012.01432402992</v>
+      </c>
+      <c r="B271" t="n">
+        <v>8951</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>28</v>
+      </c>
+      <c r="E271" t="n">
+        <v>95.76366866195146</v>
+      </c>
+      <c r="F271" t="n">
+        <v>96.73801417919819</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>46012.01432441176</v>
+      </c>
+      <c r="B272" t="n">
+        <v>8984</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>28</v>
+      </c>
+      <c r="E272" t="n">
+        <v>95.78810696183253</v>
+      </c>
+      <c r="F272" t="n">
+        <v>97.56132985040394</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>46012.01432481653</v>
+      </c>
+      <c r="B273" t="n">
+        <v>9019</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>29</v>
+      </c>
+      <c r="E273" t="n">
+        <v>95.0281376645561</v>
+      </c>
+      <c r="F273" t="n">
+        <v>96.59453211151825</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>46012.01432523407</v>
+      </c>
+      <c r="B274" t="n">
+        <v>9055</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>29</v>
+      </c>
+      <c r="E274" t="n">
+        <v>95.18074611023891</v>
+      </c>
+      <c r="F274" t="n">
+        <v>97.21722052484992</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>46012.01432563756</v>
+      </c>
+      <c r="B275" t="n">
+        <v>9090</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>29</v>
+      </c>
+      <c r="E275" t="n">
+        <v>95.77873416830005</v>
+      </c>
+      <c r="F275" t="n">
+        <v>96.90944033858189</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>46012.01432604301</v>
+      </c>
+      <c r="B276" t="n">
+        <v>9125</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>29</v>
+      </c>
+      <c r="E276" t="n">
+        <v>95.48847785422531</v>
+      </c>
+      <c r="F276" t="n">
+        <v>96.56250919588793</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>46012.01432644369</v>
+      </c>
+      <c r="B277" t="n">
+        <v>9160</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>29</v>
+      </c>
+      <c r="E277" t="n">
+        <v>95.41729505629097</v>
+      </c>
+      <c r="F277" t="n">
+        <v>97.0878417708016</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>46012.0143268488</v>
+      </c>
+      <c r="B278" t="n">
+        <v>9195</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>29</v>
+      </c>
+      <c r="E278" t="n">
+        <v>94.78173726446961</v>
+      </c>
+      <c r="F278" t="n">
+        <v>97.20732422297009</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>46012.01432724907</v>
+      </c>
+      <c r="B279" t="n">
+        <v>9229</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>29</v>
+      </c>
+      <c r="E279" t="n">
+        <v>95.48450408097908</v>
+      </c>
+      <c r="F279" t="n">
+        <v>97.01036230849267</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>46012.01432766578</v>
+      </c>
+      <c r="B280" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>29</v>
+      </c>
+      <c r="E280" t="n">
+        <v>94.70933135726651</v>
+      </c>
+      <c r="F280" t="n">
+        <v>97.36893476554886</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>46012.01432805967</v>
+      </c>
+      <c r="B281" t="n">
+        <v>9299</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>29</v>
+      </c>
+      <c r="E281" t="n">
+        <v>95.32709357943885</v>
+      </c>
+      <c r="F281" t="n">
+        <v>96.70877627041305</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>46012.01432847085</v>
+      </c>
+      <c r="B282" t="n">
+        <v>9334</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>29</v>
+      </c>
+      <c r="E282" t="n">
+        <v>94.92797810062299</v>
+      </c>
+      <c r="F282" t="n">
+        <v>96.70827588072966</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>46012.01432886431</v>
+      </c>
+      <c r="B283" t="n">
+        <v>9369</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>29</v>
+      </c>
+      <c r="E283" t="n">
+        <v>94.96195006944293</v>
+      </c>
+      <c r="F283" t="n">
+        <v>96.65594443609405</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>46012.01432926455</v>
+      </c>
+      <c r="B284" t="n">
+        <v>9403</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>29</v>
+      </c>
+      <c r="E284" t="n">
+        <v>95.26325371125635</v>
+      </c>
+      <c r="F284" t="n">
+        <v>97.11494719879539</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>46012.01432966968</v>
+      </c>
+      <c r="B285" t="n">
+        <v>9438</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>29</v>
+      </c>
+      <c r="E285" t="n">
+        <v>94.47657416195655</v>
+      </c>
+      <c r="F285" t="n">
+        <v>97.23135286884171</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>46012.01433009379</v>
+      </c>
+      <c r="B286" t="n">
+        <v>9475</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>29</v>
+      </c>
+      <c r="E286" t="n">
+        <v>94.96294514781908</v>
+      </c>
+      <c r="F286" t="n">
+        <v>97.07692743518638</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>46012.01433049842</v>
+      </c>
+      <c r="B287" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>29</v>
+      </c>
+      <c r="E287" t="n">
+        <v>94.99280674035963</v>
+      </c>
+      <c r="F287" t="n">
+        <v>96.66252937540949</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>46012.01433092215</v>
+      </c>
+      <c r="B288" t="n">
+        <v>9546</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>29</v>
+      </c>
+      <c r="E288" t="n">
+        <v>94.97754714142117</v>
+      </c>
+      <c r="F288" t="n">
+        <v>97.17164259867471</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>46012.01433132767</v>
+      </c>
+      <c r="B289" t="n">
+        <v>9582</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>29</v>
+      </c>
+      <c r="E289" t="n">
+        <v>94.4729469139841</v>
+      </c>
+      <c r="F289" t="n">
+        <v>96.99417519960704</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>46012.01433175591</v>
+      </c>
+      <c r="B290" t="n">
+        <v>9618</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>30</v>
+      </c>
+      <c r="E290" t="n">
+        <v>94.70007508737426</v>
+      </c>
+      <c r="F290" t="n">
+        <v>96.64950643284021</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>46012.01433214959</v>
+      </c>
+      <c r="B291" t="n">
+        <v>9653</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>30</v>
+      </c>
+      <c r="E291" t="n">
+        <v>94.55935234743988</v>
+      </c>
+      <c r="F291" t="n">
+        <v>96.87870102745278</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>46012.01433257885</v>
+      </c>
+      <c r="B292" t="n">
+        <v>9690</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>30</v>
+      </c>
+      <c r="E292" t="n">
+        <v>94.35171794225664</v>
+      </c>
+      <c r="F292" t="n">
+        <v>96.98021101244771</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>46012.01433299542</v>
+      </c>
+      <c r="B293" t="n">
+        <v>9726</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>30</v>
+      </c>
+      <c r="E293" t="n">
+        <v>94.8755369039543</v>
+      </c>
+      <c r="F293" t="n">
+        <v>96.19718456927001</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>46012.01433341927</v>
+      </c>
+      <c r="B294" t="n">
+        <v>9762</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>30</v>
+      </c>
+      <c r="E294" t="n">
+        <v>94.88810025442929</v>
+      </c>
+      <c r="F294" t="n">
+        <v>96.33678212607258</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>46012.01433381279</v>
+      </c>
+      <c r="B295" t="n">
+        <v>9796</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>30</v>
+      </c>
+      <c r="E295" t="n">
+        <v>94.43564730459006</v>
+      </c>
+      <c r="F295" t="n">
+        <v>96.68720928745346</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>46012.01433422459</v>
+      </c>
+      <c r="B296" t="n">
+        <v>9832</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>30</v>
+      </c>
+      <c r="E296" t="n">
+        <v>94.31322243693661</v>
+      </c>
+      <c r="F296" t="n">
+        <v>96.08929869705172</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>46012.01433464127</v>
+      </c>
+      <c r="B297" t="n">
+        <v>9868</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>30</v>
+      </c>
+      <c r="E297" t="n">
+        <v>94.7496611275956</v>
+      </c>
+      <c r="F297" t="n">
+        <v>96.2269844557847</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>46012.01433504679</v>
+      </c>
+      <c r="B298" t="n">
+        <v>9902</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>30</v>
+      </c>
+      <c r="E298" t="n">
+        <v>94.07704203986452</v>
+      </c>
+      <c r="F298" t="n">
+        <v>96.82857144696119</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>46012.01433522657</v>
+      </c>
+      <c r="B299" t="n">
+        <v>9918</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>30</v>
+      </c>
+      <c r="E299" t="n">
+        <v>94.19004144356794</v>
+      </c>
+      <c r="F299" t="n">
+        <v>96.9046677333382</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>46012.01433549294</v>
+      </c>
+      <c r="B300" t="n">
+        <v>9941</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>30</v>
+      </c>
+      <c r="E300" t="n">
+        <v>94.52903550626617</v>
+      </c>
+      <c r="F300" t="n">
+        <v>96.29155133476897</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>46012.0143358867</v>
+      </c>
+      <c r="B301" t="n">
+        <v>9976</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>30</v>
+      </c>
+      <c r="E301" t="n">
+        <v>93.80536964236997</v>
+      </c>
+      <c r="F301" t="n">
+        <v>96.95006214199442</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>46012.01433628692</v>
+      </c>
+      <c r="B302" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>30</v>
+      </c>
+      <c r="E302" t="n">
+        <v>93.84888767951919</v>
+      </c>
+      <c r="F302" t="n">
+        <v>96.70938483934</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>46012.01433668044</v>
+      </c>
+      <c r="B303" t="n">
+        <v>10044</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>30</v>
+      </c>
+      <c r="E303" t="n">
+        <v>94.22132243001933</v>
+      </c>
+      <c r="F303" t="n">
+        <v>96.73565606856198</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>46012.01433708111</v>
+      </c>
+      <c r="B304" t="n">
+        <v>10078</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>30</v>
+      </c>
+      <c r="E304" t="n">
+        <v>94.39338592008001</v>
+      </c>
+      <c r="F304" t="n">
+        <v>96.61210698921654</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>46012.0143374746</v>
+      </c>
+      <c r="B305" t="n">
+        <v>10113</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>30</v>
+      </c>
+      <c r="E305" t="n">
+        <v>94.16397757247907</v>
+      </c>
+      <c r="F305" t="n">
+        <v>96.74830733114258</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>46012.01433788578</v>
+      </c>
+      <c r="B306" t="n">
+        <v>10148</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>30</v>
+      </c>
+      <c r="E306" t="n">
+        <v>93.73636951753488</v>
+      </c>
+      <c r="F306" t="n">
+        <v>96.16641309118431</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>46012.01433826772</v>
+      </c>
+      <c r="B307" t="n">
+        <v>10181</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>30</v>
+      </c>
+      <c r="E307" t="n">
+        <v>94.30735298909602</v>
+      </c>
+      <c r="F307" t="n">
+        <v>96.24154492975197</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>46012.01433868438</v>
+      </c>
+      <c r="B308" t="n">
+        <v>10218</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>31</v>
+      </c>
+      <c r="E308" t="n">
+        <v>94.16789172452459</v>
+      </c>
+      <c r="F308" t="n">
+        <v>96.39899866253489</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>46012.01433910112</v>
+      </c>
+      <c r="B309" t="n">
+        <v>10253</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>31</v>
+      </c>
+      <c r="E309" t="n">
+        <v>94.0895884714289</v>
+      </c>
+      <c r="F309" t="n">
+        <v>96.34254364376838</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>46012.01433949655</v>
+      </c>
+      <c r="B310" t="n">
+        <v>10287</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>31</v>
+      </c>
+      <c r="E310" t="n">
+        <v>94.27808919521202</v>
+      </c>
+      <c r="F310" t="n">
+        <v>96.23988140374253</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>46012.01433991281</v>
+      </c>
+      <c r="B311" t="n">
+        <v>10323</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>31</v>
+      </c>
+      <c r="E311" t="n">
+        <v>94.20831877805507</v>
+      </c>
+      <c r="F311" t="n">
+        <v>96.17241609585592</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>46012.01434016787</v>
+      </c>
+      <c r="B312" t="n">
+        <v>10345</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>31</v>
+      </c>
+      <c r="E312" t="n">
+        <v>93.74060001453124</v>
+      </c>
+      <c r="F312" t="n">
+        <v>96.01774736865747</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>46012.01434034827</v>
+      </c>
+      <c r="B313" t="n">
+        <v>10361</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>31</v>
+      </c>
+      <c r="E313" t="n">
+        <v>93.67027561776564</v>
+      </c>
+      <c r="F313" t="n">
+        <v>96.01363441636465</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>46012.01434075319</v>
+      </c>
+      <c r="B314" t="n">
+        <v>10396</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>31</v>
+      </c>
+      <c r="E314" t="n">
+        <v>93.98925971079954</v>
+      </c>
+      <c r="F314" t="n">
+        <v>96.65021484124956</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>46012.01434115336</v>
+      </c>
+      <c r="B315" t="n">
+        <v>10430</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>31</v>
+      </c>
+      <c r="E315" t="n">
+        <v>93.61487077337273</v>
+      </c>
+      <c r="F315" t="n">
+        <v>96.09893861678701</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>46012.01434153575</v>
+      </c>
+      <c r="B316" t="n">
+        <v>10463</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>31</v>
+      </c>
+      <c r="E316" t="n">
+        <v>93.89179246932473</v>
+      </c>
+      <c r="F316" t="n">
+        <v>96.60244272730357</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>46012.0143419406</v>
+      </c>
+      <c r="B317" t="n">
+        <v>10498</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>31</v>
+      </c>
+      <c r="E317" t="n">
+        <v>94.36160026823937</v>
+      </c>
+      <c r="F317" t="n">
+        <v>96.39815351867723</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>46012.01434219038</v>
+      </c>
+      <c r="B318" t="n">
+        <v>10520</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>31</v>
+      </c>
+      <c r="E318" t="n">
+        <v>93.65410302041428</v>
+      </c>
+      <c r="F318" t="n">
+        <v>95.97162292595327</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>46012.01434236396</v>
+      </c>
+      <c r="B319" t="n">
+        <v>10535</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>31</v>
+      </c>
+      <c r="E319" t="n">
+        <v>93.5562672205542</v>
+      </c>
+      <c r="F319" t="n">
+        <v>96.09712675900214</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>46012.01434274594</v>
+      </c>
+      <c r="B320" t="n">
+        <v>10568</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>31</v>
+      </c>
+      <c r="E320" t="n">
+        <v>93.52126662730984</v>
+      </c>
+      <c r="F320" t="n">
+        <v>95.88082606656063</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>46012.0143431466</v>
+      </c>
+      <c r="B321" t="n">
+        <v>10603</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>31</v>
+      </c>
+      <c r="E321" t="n">
+        <v>93.85567114901902</v>
+      </c>
+      <c r="F321" t="n">
+        <v>96.13852739098698</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>46012.01434354015</v>
+      </c>
+      <c r="B322" t="n">
+        <v>10637</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>31</v>
+      </c>
+      <c r="E322" t="n">
+        <v>94.27664713504781</v>
+      </c>
+      <c r="F322" t="n">
+        <v>96.41575563057074</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>46012.0143439292</v>
+      </c>
+      <c r="B323" t="n">
+        <v>10671</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>31</v>
+      </c>
+      <c r="E323" t="n">
+        <v>93.98101106374922</v>
+      </c>
+      <c r="F323" t="n">
+        <v>95.98742863052526</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>46012.01434433433</v>
+      </c>
+      <c r="B324" t="n">
+        <v>10705</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>31</v>
+      </c>
+      <c r="E324" t="n">
+        <v>94.13384105206107</v>
+      </c>
+      <c r="F324" t="n">
+        <v>96.35137843756499</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H324" t="n">
         <v>1</v>
       </c>
     </row>

--- a/tst.xlsx
+++ b/tst.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,10 +483,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46034.80080553162</v>
+        <v>46034.83261922355</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99.78851063228255</v>
+        <v>105.2196883174587</v>
       </c>
       <c r="F2" t="n">
-        <v>99.29110837678824</v>
+        <v>103.6017043674306</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -513,10 +513,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46034.80080586109</v>
+        <v>46034.83261940987</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>99.36794264311804</v>
+        <v>105.4035923959023</v>
       </c>
       <c r="F3" t="n">
-        <v>99.45188480163308</v>
+        <v>103.3593653318222</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46034.80080608744</v>
+        <v>46034.83261978697</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -557,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>99.79080690908471</v>
+        <v>105.1904668367818</v>
       </c>
       <c r="F4" t="n">
-        <v>99.87967550240951</v>
+        <v>103.4612753257667</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -573,10 +573,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46034.80080634124</v>
+        <v>46034.83262027595</v>
       </c>
       <c r="B5" t="n">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>99.90274489130401</v>
+        <v>104.9932856731277</v>
       </c>
       <c r="F5" t="n">
-        <v>99.26076241237578</v>
+        <v>102.9010192327206</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -603,10 +603,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46034.80080661339</v>
+        <v>46034.83262068979</v>
       </c>
       <c r="B6" t="n">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>99.38500653756897</v>
+        <v>105.4375014136137</v>
       </c>
       <c r="F6" t="n">
-        <v>99.17200343525816</v>
+        <v>103.2656147783489</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46034.80080673616</v>
+        <v>46034.83262112434</v>
       </c>
       <c r="B7" t="n">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>99.16120057813356</v>
+        <v>105.0440192319699</v>
       </c>
       <c r="F7" t="n">
-        <v>99.63389796815579</v>
+        <v>103.3054957843033</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -663,10 +663,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46034.80080711254</v>
+        <v>46034.83262154992</v>
       </c>
       <c r="B8" t="n">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>98.90463955192034</v>
+        <v>104.8743565670259</v>
       </c>
       <c r="F8" t="n">
-        <v>99.28447296317408</v>
+        <v>102.981278446093</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -693,10 +693,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46034.80080748798</v>
+        <v>46034.832621983</v>
       </c>
       <c r="B9" t="n">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>99.46302142707371</v>
+        <v>105.013073862285</v>
       </c>
       <c r="F9" t="n">
-        <v>99.58734690010451</v>
+        <v>103.6935802077126</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -723,10 +723,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46034.80080788211</v>
+        <v>46034.83262239442</v>
       </c>
       <c r="B10" t="n">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>98.96615559874058</v>
+        <v>104.8087041372683</v>
       </c>
       <c r="F10" t="n">
-        <v>99.58682538987559</v>
+        <v>103.590782558953</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -753,10 +753,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46034.80080825872</v>
+        <v>46034.83262281759</v>
       </c>
       <c r="B11" t="n">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,13 +764,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>99.48917883678369</v>
+        <v>104.9683430840015</v>
       </c>
       <c r="F11" t="n">
-        <v>98.9602004002105</v>
+        <v>102.7725851011924</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -783,10 +783,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46034.80080869853</v>
+        <v>46034.83262326496</v>
       </c>
       <c r="B12" t="n">
-        <v>286</v>
+        <v>386</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>99.41161655927135</v>
+        <v>105.2811671165504</v>
       </c>
       <c r="F12" t="n">
-        <v>99.60269970102483</v>
+        <v>103.075894081979</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -813,10 +813,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46034.80080908186</v>
+        <v>46034.83262367649</v>
       </c>
       <c r="B13" t="n">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>98.87907012114839</v>
+        <v>105.2804503192854</v>
       </c>
       <c r="F13" t="n">
-        <v>99.01555740584283</v>
+        <v>103.0438335738033</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46034.80080947697</v>
+        <v>46034.83262410998</v>
       </c>
       <c r="B14" t="n">
-        <v>353</v>
+        <v>458</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,13 +854,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>99.42993051798136</v>
+        <v>104.4203563999904</v>
       </c>
       <c r="F14" t="n">
-        <v>99.15279679916259</v>
+        <v>103.2538713287304</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -873,10 +873,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46034.80080986524</v>
+        <v>46034.83262452729</v>
       </c>
       <c r="B15" t="n">
-        <v>386</v>
+        <v>499</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>98.49965121926625</v>
+        <v>105.1300573641503</v>
       </c>
       <c r="F15" t="n">
-        <v>98.86926230796796</v>
+        <v>102.8651733775396</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -903,10 +903,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46034.80081023613</v>
+        <v>46034.8326249503</v>
       </c>
       <c r="B16" t="n">
-        <v>419</v>
+        <v>531</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.190113800887</v>
+        <v>104.582792462389</v>
       </c>
       <c r="F16" t="n">
-        <v>99.3336555728915</v>
+        <v>102.5833318327442</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46034.80081065948</v>
+        <v>46034.83262536875</v>
       </c>
       <c r="B17" t="n">
-        <v>455</v>
+        <v>571</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>99.07841580019637</v>
+        <v>104.7283665240265</v>
       </c>
       <c r="F17" t="n">
-        <v>99.41240807599685</v>
+        <v>103.3823259177309</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -963,10 +963,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46034.80081104772</v>
+        <v>46034.83262583157</v>
       </c>
       <c r="B18" t="n">
-        <v>490</v>
+        <v>609</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>98.74054564756207</v>
+        <v>104.9820311432129</v>
       </c>
       <c r="F18" t="n">
-        <v>99.61146302495563</v>
+        <v>103.1716303955863</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46034.80081119603</v>
+        <v>46034.83262627447</v>
       </c>
       <c r="B19" t="n">
-        <v>502</v>
+        <v>646</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>98.55837994441217</v>
+        <v>105.0049880683692</v>
       </c>
       <c r="F19" t="n">
-        <v>99.1741980919027</v>
+        <v>103.067542602389</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46034.80081148426</v>
+        <v>46034.83262670169</v>
       </c>
       <c r="B20" t="n">
-        <v>527</v>
+        <v>688</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>98.96119833441342</v>
+        <v>104.8190283773181</v>
       </c>
       <c r="F20" t="n">
-        <v>99.20890203792761</v>
+        <v>102.9087988117696</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46034.80081187435</v>
+        <v>46034.83262713778</v>
       </c>
       <c r="B21" t="n">
-        <v>561</v>
+        <v>721</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>98.92675217088023</v>
+        <v>104.0928188570475</v>
       </c>
       <c r="F21" t="n">
-        <v>99.12362845284449</v>
+        <v>102.5701444278596</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46034.80081208477</v>
+        <v>46034.83262758837</v>
       </c>
       <c r="B22" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>98.73551848907834</v>
+        <v>104.0550332520627</v>
       </c>
       <c r="F22" t="n">
-        <v>98.56958425327743</v>
+        <v>103.1276396392125</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46034.80081231821</v>
+        <v>46034.83262800809</v>
       </c>
       <c r="B23" t="n">
-        <v>599</v>
+        <v>796</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>98.21774820974133</v>
+        <v>103.8886198975733</v>
       </c>
       <c r="F23" t="n">
-        <v>98.78602453274158</v>
+        <v>102.8600559245142</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46034.80081273607</v>
+        <v>46034.83262843826</v>
       </c>
       <c r="B24" t="n">
-        <v>635</v>
+        <v>839</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>98.00002072966866</v>
+        <v>104.1768037640179</v>
       </c>
       <c r="F24" t="n">
-        <v>98.68351519347875</v>
+        <v>103.0779220994688</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46034.8008129925</v>
+        <v>46034.83262890748</v>
       </c>
       <c r="B25" t="n">
-        <v>657</v>
+        <v>881</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,13 +1184,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>97.97934405857012</v>
+        <v>104.2982860558368</v>
       </c>
       <c r="F25" t="n">
-        <v>98.70109894716768</v>
+        <v>102.8502522808798</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46034.80081314444</v>
+        <v>46034.83262937134</v>
       </c>
       <c r="B26" t="n">
-        <v>671</v>
+        <v>914</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>98.48741424232055</v>
+        <v>103.7734644646121</v>
       </c>
       <c r="F26" t="n">
-        <v>98.77043156932608</v>
+        <v>102.5125311123768</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46034.80081351577</v>
+        <v>46034.83262982955</v>
       </c>
       <c r="B27" t="n">
-        <v>702</v>
+        <v>958</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>98.16117064384008</v>
+        <v>104.6259788544453</v>
       </c>
       <c r="F27" t="n">
-        <v>98.5751339785074</v>
+        <v>102.88597962139</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46034.80081370701</v>
+        <v>46034.83263027592</v>
       </c>
       <c r="B28" t="n">
-        <v>719</v>
+        <v>995</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>98.02489651574899</v>
+        <v>104.0921406319903</v>
       </c>
       <c r="F28" t="n">
-        <v>99.28053479783921</v>
+        <v>102.9005084183443</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46034.80081393451</v>
+        <v>46034.83263074019</v>
       </c>
       <c r="B29" t="n">
-        <v>738</v>
+        <v>1033</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>98.36947681082667</v>
+        <v>104.3283493039939</v>
       </c>
       <c r="F29" t="n">
-        <v>98.92903886080073</v>
+        <v>102.1682528142906</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46034.80081430836</v>
+        <v>46034.83263119831</v>
       </c>
       <c r="B30" t="n">
-        <v>770</v>
+        <v>1074</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>97.8308353072284</v>
+        <v>104.413195714407</v>
       </c>
       <c r="F30" t="n">
-        <v>99.00849204587934</v>
+        <v>102.6981552300976</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46034.80081443081</v>
+        <v>46034.83263161615</v>
       </c>
       <c r="B31" t="n">
-        <v>781</v>
+        <v>1111</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>97.80246509022335</v>
+        <v>103.8350776930229</v>
       </c>
       <c r="F31" t="n">
-        <v>98.64528217053527</v>
+        <v>102.7022009216641</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46034.80081472142</v>
+        <v>46034.83263199392</v>
       </c>
       <c r="B32" t="n">
-        <v>806</v>
+        <v>1145</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>98.58068776106273</v>
+        <v>103.6771533386053</v>
       </c>
       <c r="F32" t="n">
-        <v>98.87441946928723</v>
+        <v>102.8681708673665</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46034.80081509316</v>
+        <v>46034.83263248697</v>
       </c>
       <c r="B33" t="n">
-        <v>839</v>
+        <v>1186</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,13 +1424,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>98.08513571129035</v>
+        <v>104.0445935608701</v>
       </c>
       <c r="F33" t="n">
-        <v>98.87778294381548</v>
+        <v>102.5883245384973</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46034.80081548802</v>
+        <v>46034.83263290428</v>
       </c>
       <c r="B34" t="n">
-        <v>872</v>
+        <v>1227</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>98.30828936701528</v>
+        <v>103.3872420622267</v>
       </c>
       <c r="F34" t="n">
-        <v>98.92812006037596</v>
+        <v>102.878612966837</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46034.80081567651</v>
+        <v>46034.83263328701</v>
       </c>
       <c r="B35" t="n">
-        <v>890</v>
+        <v>1254</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,13 +1484,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>97.66158917755281</v>
+        <v>103.5839257342053</v>
       </c>
       <c r="F35" t="n">
-        <v>98.16272182816624</v>
+        <v>102.7898741544314</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46034.80081593466</v>
+        <v>46034.83263368382</v>
       </c>
       <c r="B36" t="n">
-        <v>912</v>
+        <v>1286</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,13 +1514,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>97.70668283119549</v>
+        <v>103.1490843832124</v>
       </c>
       <c r="F36" t="n">
-        <v>98.37138599005637</v>
+        <v>101.9677644526101</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46034.80081634613</v>
+        <v>46034.83263407343</v>
       </c>
       <c r="B37" t="n">
-        <v>946</v>
+        <v>1316</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,13 +1544,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.53651616256288</v>
+        <v>103.1909455939345</v>
       </c>
       <c r="F37" t="n">
-        <v>99.00370553457888</v>
+        <v>101.9737580333181</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46034.80081681252</v>
+        <v>46034.8326344656</v>
       </c>
       <c r="B38" t="n">
-        <v>987</v>
+        <v>1353</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,13 +1574,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>98.12555050483247</v>
+        <v>103.3050112902495</v>
       </c>
       <c r="F38" t="n">
-        <v>98.32575698391317</v>
+        <v>102.4839244849356</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46034.80081725292</v>
+        <v>46034.83263485554</v>
       </c>
       <c r="B39" t="n">
-        <v>1025</v>
+        <v>1392</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>97.83282442128878</v>
+        <v>103.2717292912039</v>
       </c>
       <c r="F39" t="n">
-        <v>98.36004276190424</v>
+        <v>102.6802212275378</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46034.80081769863</v>
+        <v>46034.83263526566</v>
       </c>
       <c r="B40" t="n">
-        <v>1064</v>
+        <v>1422</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,13 +1634,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>98.02022214009553</v>
+        <v>103.7590198792478</v>
       </c>
       <c r="F40" t="n">
-        <v>98.37673487166573</v>
+        <v>102.5467653358299</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46034.80081816629</v>
+        <v>46034.83263563739</v>
       </c>
       <c r="B41" t="n">
-        <v>1104</v>
+        <v>1456</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,13 +1664,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>97.29645527800284</v>
+        <v>103.0605846773997</v>
       </c>
       <c r="F41" t="n">
-        <v>98.11652595805658</v>
+        <v>102.3019898206982</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1683,10 +1683,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46034.8008186148</v>
+        <v>46034.83263605088</v>
       </c>
       <c r="B42" t="n">
-        <v>1143</v>
+        <v>1490</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>97.52100758555089</v>
+        <v>103.2988310015386</v>
       </c>
       <c r="F42" t="n">
-        <v>98.08615100508086</v>
+        <v>101.7531637441587</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46034.80081905695</v>
+        <v>46034.83263642463</v>
       </c>
       <c r="B43" t="n">
-        <v>1181</v>
+        <v>1524</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,13 +1724,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>97.47536773667711</v>
+        <v>102.9952867869685</v>
       </c>
       <c r="F43" t="n">
-        <v>98.67682327501679</v>
+        <v>102.1264977925366</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46034.80081951777</v>
+        <v>46034.83263683863</v>
       </c>
       <c r="B44" t="n">
-        <v>1221</v>
+        <v>1558</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,13 +1754,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>97.21750944906898</v>
+        <v>103.1329997411579</v>
       </c>
       <c r="F44" t="n">
-        <v>97.95155229079774</v>
+        <v>101.7224817638547</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46034.80081995454</v>
+        <v>46034.83263720506</v>
       </c>
       <c r="B45" t="n">
-        <v>1258</v>
+        <v>1589</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,13 +1784,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>97.74723195821652</v>
+        <v>103.5169537312109</v>
       </c>
       <c r="F45" t="n">
-        <v>98.19782785620039</v>
+        <v>101.6731722696773</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46034.80082039085</v>
+        <v>46034.83263761304</v>
       </c>
       <c r="B46" t="n">
-        <v>1296</v>
+        <v>1625</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>96.77262469340424</v>
+        <v>103.1710836511403</v>
       </c>
       <c r="F46" t="n">
-        <v>97.69186627040285</v>
+        <v>102.1996356805506</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46034.80082082329</v>
+        <v>46034.83263799724</v>
       </c>
       <c r="B47" t="n">
-        <v>1334</v>
+        <v>1659</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,13 +1844,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>96.72341241783244</v>
+        <v>103.0588356894714</v>
       </c>
       <c r="F47" t="n">
-        <v>98.22876397220932</v>
+        <v>102.2842242080345</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1863,10 +1863,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46034.80082109058</v>
+        <v>46034.83263839407</v>
       </c>
       <c r="B48" t="n">
-        <v>1357</v>
+        <v>1692</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,13 +1874,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>97.36542551520778</v>
+        <v>102.9557858072409</v>
       </c>
       <c r="F48" t="n">
-        <v>97.99769528711299</v>
+        <v>102.2277042184408</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46034.80082132827</v>
+        <v>46034.83263876147</v>
       </c>
       <c r="B49" t="n">
-        <v>1377</v>
+        <v>1729</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,13 +1904,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>96.60106430677331</v>
+        <v>102.3637304326237</v>
       </c>
       <c r="F49" t="n">
-        <v>97.93434347538971</v>
+        <v>101.4116335230691</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46034.80082146154</v>
+        <v>46034.83263916944</v>
       </c>
       <c r="B50" t="n">
-        <v>1389</v>
+        <v>1761</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>97.51149082741404</v>
+        <v>102.9132621946346</v>
       </c>
       <c r="F50" t="n">
-        <v>98.06773326016057</v>
+        <v>101.9022565466302</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46034.80082178676</v>
+        <v>46034.83263953405</v>
       </c>
       <c r="B51" t="n">
-        <v>1416</v>
+        <v>1794</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,13 +1964,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>97.43849703041735</v>
+        <v>102.8660570213402</v>
       </c>
       <c r="F51" t="n">
-        <v>98.36892821288954</v>
+        <v>102.0559525204638</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46034.8008222143</v>
+        <v>46034.832639943</v>
       </c>
       <c r="B52" t="n">
-        <v>1454</v>
+        <v>1828</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,13 +1994,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>96.41345927629642</v>
+        <v>102.5678591474965</v>
       </c>
       <c r="F52" t="n">
-        <v>98.18737994114046</v>
+        <v>101.887067765921</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2013,10 +2013,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46034.80082262107</v>
+        <v>46034.83264032599</v>
       </c>
       <c r="B53" t="n">
-        <v>1490</v>
+        <v>1862</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>97.02074819162699</v>
+        <v>102.5882751589313</v>
       </c>
       <c r="F53" t="n">
-        <v>97.96382892652251</v>
+        <v>101.8359310306072</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46034.80082290679</v>
+        <v>46034.83264070914</v>
       </c>
       <c r="B54" t="n">
-        <v>1513</v>
+        <v>1896</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,13 +2054,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>96.56458600990948</v>
+        <v>102.3201460959922</v>
       </c>
       <c r="F54" t="n">
-        <v>98.04177774781157</v>
+        <v>102.1268574484223</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46034.80082307514</v>
+        <v>46034.83264108859</v>
       </c>
       <c r="B55" t="n">
-        <v>1528</v>
+        <v>1928</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>96.38444756268635</v>
+        <v>102.4522460519408</v>
       </c>
       <c r="F55" t="n">
-        <v>97.81991588524669</v>
+        <v>101.9353566172698</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46034.80082348978</v>
+        <v>46034.83264149369</v>
       </c>
       <c r="B56" t="n">
-        <v>1564</v>
+        <v>1964</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>96.66487009260175</v>
+        <v>102.5897747669136</v>
       </c>
       <c r="F56" t="n">
-        <v>98.30014082338896</v>
+        <v>101.3863292603034</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46034.80082389194</v>
+        <v>46034.83264186648</v>
       </c>
       <c r="B57" t="n">
-        <v>1598</v>
+        <v>1997</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,13 +2144,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>97.0276745901367</v>
+        <v>101.9184076513844</v>
       </c>
       <c r="F57" t="n">
-        <v>97.57251816954516</v>
+        <v>101.1103178942607</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46034.80082432702</v>
+        <v>46034.83264229065</v>
       </c>
       <c r="B58" t="n">
-        <v>1636</v>
+        <v>2029</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,13 +2174,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>96.58793647444688</v>
+        <v>102.2165465052854</v>
       </c>
       <c r="F58" t="n">
-        <v>97.44748038004549</v>
+        <v>101.4901621606362</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2193,10 +2193,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46034.80082453832</v>
+        <v>46034.83264269432</v>
       </c>
       <c r="B59" t="n">
-        <v>1655</v>
+        <v>2064</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,13 +2204,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>96.96874128840092</v>
+        <v>101.9163238570583</v>
       </c>
       <c r="F59" t="n">
-        <v>98.11986823636798</v>
+        <v>101.5705118970564</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46034.80082476541</v>
+        <v>46034.83264308381</v>
       </c>
       <c r="B60" t="n">
-        <v>1674</v>
+        <v>2098</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,13 +2234,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>96.32193904626241</v>
+        <v>101.9603337655283</v>
       </c>
       <c r="F60" t="n">
-        <v>97.8679921160271</v>
+        <v>101.6401500845027</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2253,10 +2253,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46034.80082514582</v>
+        <v>46034.8326434902</v>
       </c>
       <c r="B61" t="n">
-        <v>1708</v>
+        <v>2134</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,13 +2264,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>96.57631173576921</v>
+        <v>102.3158022936992</v>
       </c>
       <c r="F61" t="n">
-        <v>97.34700690984472</v>
+        <v>101.7393943627053</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46034.80082545365</v>
+        <v>46034.83264391631</v>
       </c>
       <c r="B62" t="n">
-        <v>1734</v>
+        <v>2170</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,13 +2294,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>96.68613645942655</v>
+        <v>102.488591501868</v>
       </c>
       <c r="F62" t="n">
-        <v>97.7064705154264</v>
+        <v>100.9646884543555</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46034.80082557652</v>
+        <v>46034.83264431145</v>
       </c>
       <c r="B63" t="n">
-        <v>1745</v>
+        <v>2208</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,13 +2324,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>96.6844042509356</v>
+        <v>101.8179918578995</v>
       </c>
       <c r="F63" t="n">
-        <v>97.68641002145806</v>
+        <v>101.3525311838946</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46034.80082596686</v>
+        <v>46034.83264473254</v>
       </c>
       <c r="B64" t="n">
-        <v>1778</v>
+        <v>2246</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,13 +2354,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>95.85039434652361</v>
+        <v>101.6976542245281</v>
       </c>
       <c r="F64" t="n">
-        <v>97.4456900999417</v>
+        <v>101.2121901410456</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46034.80082635874</v>
+        <v>46034.83264515486</v>
       </c>
       <c r="B65" t="n">
-        <v>1812</v>
+        <v>2277</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>95.81461493850946</v>
+        <v>101.5759765720588</v>
       </c>
       <c r="F65" t="n">
-        <v>98.01700632416392</v>
+        <v>100.9476798766782</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46034.80082674877</v>
+        <v>46034.83264553914</v>
       </c>
       <c r="B66" t="n">
-        <v>1846</v>
+        <v>2308</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>96.618646322118</v>
+        <v>101.3405919665136</v>
       </c>
       <c r="F66" t="n">
-        <v>97.88573751845811</v>
+        <v>100.9474486944242</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46034.80082715273</v>
+        <v>46034.83264593502</v>
       </c>
       <c r="B67" t="n">
-        <v>1880</v>
+        <v>2345</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,13 +2444,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>95.99190270726578</v>
+        <v>101.5628980893431</v>
       </c>
       <c r="F67" t="n">
-        <v>97.07808620694934</v>
+        <v>101.229840302417</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46034.80082745058</v>
+        <v>46034.83264634226</v>
       </c>
       <c r="B68" t="n">
-        <v>1906</v>
+        <v>2379</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,13 +2474,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>96.52071272337982</v>
+        <v>101.358565337947</v>
       </c>
       <c r="F68" t="n">
-        <v>97.94174005194907</v>
+        <v>101.4346972413578</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46034.80082776761</v>
+        <v>46034.83264672713</v>
       </c>
       <c r="B69" t="n">
-        <v>1934</v>
+        <v>2416</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>95.68434920643475</v>
+        <v>101.2050689737491</v>
       </c>
       <c r="F69" t="n">
-        <v>97.45407746804541</v>
+        <v>100.8540307735394</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46034.80082797159</v>
+        <v>46034.83264715226</v>
       </c>
       <c r="B70" t="n">
-        <v>1952</v>
+        <v>2455</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2534,13 +2534,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>95.63940933708014</v>
+        <v>101.5529727196955</v>
       </c>
       <c r="F70" t="n">
-        <v>97.71144103970956</v>
+        <v>100.7930693211361</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46034.80082825865</v>
+        <v>46034.83264757829</v>
       </c>
       <c r="B71" t="n">
-        <v>1977</v>
+        <v>2488</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2564,13 +2564,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>96.29673241848265</v>
+        <v>101.6649125769116</v>
       </c>
       <c r="F71" t="n">
-        <v>97.05550539813079</v>
+        <v>100.9300802977255</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2583,10 +2583,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46034.80082866306</v>
+        <v>46034.83264800902</v>
       </c>
       <c r="B72" t="n">
-        <v>2012</v>
+        <v>2526</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2594,13 +2594,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>95.95141771864981</v>
+        <v>101.34434276428</v>
       </c>
       <c r="F72" t="n">
-        <v>97.44397534571732</v>
+        <v>100.8828616593213</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46034.8008290691</v>
+        <v>46034.83264841669</v>
       </c>
       <c r="B73" t="n">
-        <v>2046</v>
+        <v>2559</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>95.68701901395292</v>
+        <v>101.0691067403052</v>
       </c>
       <c r="F73" t="n">
-        <v>97.7341577471651</v>
+        <v>100.3615891129812</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46034.80082947692</v>
+        <v>46034.83264882355</v>
       </c>
       <c r="B74" t="n">
-        <v>2081</v>
+        <v>2596</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2654,13 +2654,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>95.79149388794217</v>
+        <v>101.6375105831782</v>
       </c>
       <c r="F74" t="n">
-        <v>97.04155807504723</v>
+        <v>100.7986369165263</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2673,10 +2673,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46034.80082988532</v>
+        <v>46034.83264921359</v>
       </c>
       <c r="B75" t="n">
-        <v>2116</v>
+        <v>2630</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2684,13 +2684,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95.8543405034804</v>
+        <v>101.5919595558745</v>
       </c>
       <c r="F75" t="n">
-        <v>97.52804852465152</v>
+        <v>100.4639336251181</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46034.80083028157</v>
+        <v>46034.83264962559</v>
       </c>
       <c r="B76" t="n">
-        <v>2151</v>
+        <v>2663</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2714,13 +2714,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>95.46328132499555</v>
+        <v>100.907880388052</v>
       </c>
       <c r="F76" t="n">
-        <v>97.07857753120989</v>
+        <v>100.2527180821111</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46034.80083068156</v>
+        <v>46034.8326500389</v>
       </c>
       <c r="B77" t="n">
-        <v>2185</v>
+        <v>2699</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2744,13 +2744,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>96.20658455252718</v>
+        <v>100.980094890173</v>
       </c>
       <c r="F77" t="n">
-        <v>97.3869400023185</v>
+        <v>101.0382081647588</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46034.80083108952</v>
+        <v>46034.83265044608</v>
       </c>
       <c r="B78" t="n">
-        <v>2221</v>
+        <v>2732</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2774,13 +2774,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>95.59635756431901</v>
+        <v>101.0689042584525</v>
       </c>
       <c r="F78" t="n">
-        <v>97.22353907400661</v>
+        <v>100.5796051508027</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46034.80083150192</v>
+        <v>46034.83265084112</v>
       </c>
       <c r="B79" t="n">
-        <v>2256</v>
+        <v>2771</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2804,13 +2804,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>95.22736954536205</v>
+        <v>100.884892140695</v>
       </c>
       <c r="F79" t="n">
-        <v>96.90047804335265</v>
+        <v>100.9120469283422</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2823,10 +2823,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46034.80083190501</v>
+        <v>46034.83265129416</v>
       </c>
       <c r="B80" t="n">
-        <v>2291</v>
+        <v>2807</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>95.39400249302403</v>
+        <v>100.7018324713096</v>
       </c>
       <c r="F80" t="n">
-        <v>97.23490879533898</v>
+        <v>100.8959475574767</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46034.80083230743</v>
+        <v>46034.83265168275</v>
       </c>
       <c r="B81" t="n">
-        <v>2326</v>
+        <v>2843</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2864,13 +2864,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>95.23614882958418</v>
+        <v>100.9308005451432</v>
       </c>
       <c r="F81" t="n">
-        <v>96.83812777917879</v>
+        <v>100.732381162102</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46034.80083274316</v>
+        <v>46034.8326521027</v>
       </c>
       <c r="B82" t="n">
-        <v>2363</v>
+        <v>2882</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2894,13 +2894,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>95.02362713065928</v>
+        <v>100.4966950118782</v>
       </c>
       <c r="F82" t="n">
-        <v>97.21848908477095</v>
+        <v>100.3208436754474</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46034.80083315181</v>
+        <v>46034.83265264299</v>
       </c>
       <c r="B83" t="n">
-        <v>2399</v>
+        <v>2926</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2924,13 +2924,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>95.13086346637033</v>
+        <v>100.6089911740527</v>
       </c>
       <c r="F83" t="n">
-        <v>97.46400644761474</v>
+        <v>100.0536437421967</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46034.80083362417</v>
+        <v>46034.832653125</v>
       </c>
       <c r="B84" t="n">
-        <v>2439</v>
+        <v>2971</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2954,13 +2954,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>95.70606091283125</v>
+        <v>100.5091601542873</v>
       </c>
       <c r="F84" t="n">
-        <v>96.59814738573121</v>
+        <v>99.87739828741674</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46034.80083406675</v>
+        <v>46034.83265355258</v>
       </c>
       <c r="B85" t="n">
-        <v>2478</v>
+        <v>3008</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2984,13 +2984,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>95.0313537040511</v>
+        <v>100.3863280711216</v>
       </c>
       <c r="F85" t="n">
-        <v>97.16656145253181</v>
+        <v>100.5190652656636</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46034.80083451614</v>
+        <v>46034.83265401889</v>
       </c>
       <c r="B86" t="n">
-        <v>2517</v>
+        <v>3043</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3014,13 +3014,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>94.95482184777572</v>
+        <v>100.0816928599052</v>
       </c>
       <c r="F86" t="n">
-        <v>96.60059341957536</v>
+        <v>100.6903789049091</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46034.80083495923</v>
+        <v>46034.83265441631</v>
       </c>
       <c r="B87" t="n">
-        <v>2555</v>
+        <v>3075</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3044,13 +3044,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>95.62506164283204</v>
+        <v>100.4125139892016</v>
       </c>
       <c r="F87" t="n">
-        <v>97.01120976545343</v>
+        <v>99.77354251708009</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46034.80083539226</v>
+        <v>46034.83265481711</v>
       </c>
       <c r="B88" t="n">
-        <v>2592</v>
+        <v>3114</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3074,13 +3074,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>95.1134089358108</v>
+        <v>100.6383174296377</v>
       </c>
       <c r="F88" t="n">
-        <v>97.19811923071669</v>
+        <v>100.0027225926182</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46034.80083583143</v>
+        <v>46034.83265524264</v>
       </c>
       <c r="B89" t="n">
-        <v>2630</v>
+        <v>3150</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3104,13 +3104,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>95.39837019196025</v>
+        <v>100.3846545375284</v>
       </c>
       <c r="F89" t="n">
-        <v>96.5769002544847</v>
+        <v>99.89892280854009</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46034.80083628508</v>
+        <v>46034.83265565183</v>
       </c>
       <c r="B90" t="n">
-        <v>2670</v>
+        <v>3187</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3134,13 +3134,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>94.63712971409066</v>
+        <v>100.4577495787348</v>
       </c>
       <c r="F90" t="n">
-        <v>96.79034821765076</v>
+        <v>100.2674991737359</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3153,10 +3153,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46034.80083671661</v>
+        <v>46034.83265610496</v>
       </c>
       <c r="B91" t="n">
-        <v>2707</v>
+        <v>3224</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3164,13 +3164,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>94.91741355092867</v>
+        <v>99.63933638315829</v>
       </c>
       <c r="F91" t="n">
-        <v>96.8016780509745</v>
+        <v>99.96930838941576</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46034.80083699139</v>
+        <v>46034.83265651223</v>
       </c>
       <c r="B92" t="n">
-        <v>2731</v>
+        <v>3261</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3194,13 +3194,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>95.19284239536324</v>
+        <v>99.86978330444461</v>
       </c>
       <c r="F92" t="n">
-        <v>96.99216223433868</v>
+        <v>99.45844242021919</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46034.80083717726</v>
+        <v>46034.83265693905</v>
       </c>
       <c r="B93" t="n">
-        <v>2747</v>
+        <v>3296</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3224,13 +3224,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>95.4280213839086</v>
+        <v>99.43420103264751</v>
       </c>
       <c r="F93" t="n">
-        <v>96.40677308095928</v>
+        <v>99.697825197079</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3243,10 +3243,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46034.80083760878</v>
+        <v>46034.8326573579</v>
       </c>
       <c r="B94" t="n">
-        <v>2784</v>
+        <v>3340</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>94.80038084321404</v>
+        <v>99.69767129588392</v>
       </c>
       <c r="F94" t="n">
-        <v>96.62366096006748</v>
+        <v>99.77296030013405</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3273,10 +3273,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46034.80083804213</v>
+        <v>46034.83265783801</v>
       </c>
       <c r="B95" t="n">
-        <v>2821</v>
+        <v>3379</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3284,13 +3284,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>95.21424075382679</v>
+        <v>99.74847774772179</v>
       </c>
       <c r="F95" t="n">
-        <v>96.50974317998943</v>
+        <v>99.77702811501868</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46034.80083848091</v>
+        <v>46034.83265827926</v>
       </c>
       <c r="B96" t="n">
-        <v>2859</v>
+        <v>3411</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3314,13 +3314,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>94.49764887654725</v>
+        <v>99.39254578406026</v>
       </c>
       <c r="F96" t="n">
-        <v>96.68672613819562</v>
+        <v>99.82286785784025</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3328,6 +3328,6036 @@
         </is>
       </c>
       <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>46034.83265868433</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3452</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>99.15857410685744</v>
+      </c>
+      <c r="F97" t="n">
+        <v>100.1547875329245</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>46034.83265911989</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3484</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>99.65974412673066</v>
+      </c>
+      <c r="F98" t="n">
+        <v>99.41303928702344</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>46034.8326595558</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3524</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>99.18208880612683</v>
+      </c>
+      <c r="F99" t="n">
+        <v>99.89237098406251</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>46034.8326600003</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3562</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>99.30200190907266</v>
+      </c>
+      <c r="F100" t="n">
+        <v>99.7222256932762</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>46034.83266045462</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>98.99129493401743</v>
+      </c>
+      <c r="F101" t="n">
+        <v>99.77726497660231</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>46034.83266087464</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3637</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>98.9874481089232</v>
+      </c>
+      <c r="F102" t="n">
+        <v>99.58719797150712</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>46034.8326612712</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3670</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>99.53193214091313</v>
+      </c>
+      <c r="F103" t="n">
+        <v>99.45255431466708</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>46034.83266165473</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3703</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>99.28297318998251</v>
+      </c>
+      <c r="F104" t="n">
+        <v>99.55048564919066</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>46034.83266203258</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3735</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>99.10890409683685</v>
+      </c>
+      <c r="F105" t="n">
+        <v>98.80844783299763</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>46034.8326623929</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3767</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>98.83385905214897</v>
+      </c>
+      <c r="F106" t="n">
+        <v>99.70803473437209</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>46034.83266277137</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3799</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>99.07822218377839</v>
+      </c>
+      <c r="F107" t="n">
+        <v>99.47475309550497</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>46034.83266313878</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3834</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>98.81044011032662</v>
+      </c>
+      <c r="F108" t="n">
+        <v>99.37860012534848</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>46034.83266351846</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3863</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>98.75380603387443</v>
+      </c>
+      <c r="F109" t="n">
+        <v>98.78634442299031</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>46034.83266386166</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3895</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>98.73983773891592</v>
+      </c>
+      <c r="F110" t="n">
+        <v>99.19624999897627</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>46034.8326642398</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3929</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>98.88894591665253</v>
+      </c>
+      <c r="F111" t="n">
+        <v>98.68264907595089</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>46034.83266463757</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3961</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>98.66106471303696</v>
+      </c>
+      <c r="F112" t="n">
+        <v>98.52193147301224</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>46034.83266500942</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3995</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>98.86690250827726</v>
+      </c>
+      <c r="F113" t="n">
+        <v>98.55961045949017</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>46034.8326653858</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>97.87462032237167</v>
+      </c>
+      <c r="F114" t="n">
+        <v>98.72189476864628</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>46034.83266576773</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4062</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>97.9430554521375</v>
+      </c>
+      <c r="F115" t="n">
+        <v>99.05654457141374</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>46034.83266616817</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4097</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>98.13610746975912</v>
+      </c>
+      <c r="F116" t="n">
+        <v>99.09769779938054</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>46034.8326665616</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4128</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>98.58002705555739</v>
+      </c>
+      <c r="F117" t="n">
+        <v>99.15205790649487</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>46034.83266695596</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4162</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>98.33068392806419</v>
+      </c>
+      <c r="F118" t="n">
+        <v>98.29911444322782</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>46034.83266735078</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4197</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>97.66855636622087</v>
+      </c>
+      <c r="F119" t="n">
+        <v>98.40200808574832</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>46034.83266772782</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4233</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>97.792322516951</v>
+      </c>
+      <c r="F120" t="n">
+        <v>98.81554695572444</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>46034.83266814028</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4263</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>97.92667266511965</v>
+      </c>
+      <c r="F121" t="n">
+        <v>98.42390315735584</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>46034.83266851701</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4297</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>97.51193746718175</v>
+      </c>
+      <c r="F122" t="n">
+        <v>98.98153849261578</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>46034.83266891175</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4333</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>97.61656868545109</v>
+      </c>
+      <c r="F123" t="n">
+        <v>98.38167360320128</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>46034.83266932133</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4369</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>97.98105886944853</v>
+      </c>
+      <c r="F124" t="n">
+        <v>98.70591941458753</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>46034.83266972079</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4399</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>97.78764421380187</v>
+      </c>
+      <c r="F125" t="n">
+        <v>98.63626944611687</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>46034.83267008741</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4434</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>97.6938779423362</v>
+      </c>
+      <c r="F126" t="n">
+        <v>98.09597276872596</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>46034.83267050213</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>97.2655876968378</v>
+      </c>
+      <c r="F127" t="n">
+        <v>98.41989584289152</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>46034.83267087954</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4506</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>97.18346759065598</v>
+      </c>
+      <c r="F128" t="n">
+        <v>98.79564932779584</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>46034.83267129891</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4535</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>97.19084796682125</v>
+      </c>
+      <c r="F129" t="n">
+        <v>98.06958412708192</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>46034.83267168485</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4569</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>97.03895136057994</v>
+      </c>
+      <c r="F130" t="n">
+        <v>98.44594130704112</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>46034.83267206255</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4605</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>97.0891275785754</v>
+      </c>
+      <c r="F131" t="n">
+        <v>98.05147249578108</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>46034.83267244759</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4635</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>97.64688993041632</v>
+      </c>
+      <c r="F132" t="n">
+        <v>98.46030716938361</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>46034.8326728431</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4669</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>96.92476080764303</v>
+      </c>
+      <c r="F133" t="n">
+        <v>97.74717306370013</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>46034.83267321013</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4703</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>97.2705686077131</v>
+      </c>
+      <c r="F134" t="n">
+        <v>97.96836587712636</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>46034.83267361837</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4742</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>97.51208133508362</v>
+      </c>
+      <c r="F135" t="n">
+        <v>98.36752710521885</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>46034.83267402639</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4772</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>97.42452887413795</v>
+      </c>
+      <c r="F136" t="n">
+        <v>98.31435241857618</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>46034.83267441751</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4805</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>96.70135601527379</v>
+      </c>
+      <c r="F137" t="n">
+        <v>97.75994063137514</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>46034.83267481806</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4843</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>97.06421325210481</v>
+      </c>
+      <c r="F138" t="n">
+        <v>97.78019171912032</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>46034.83267519628</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4877</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>96.73457967464937</v>
+      </c>
+      <c r="F139" t="n">
+        <v>97.65375732494743</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>46034.83267559791</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4912</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>96.71205864576116</v>
+      </c>
+      <c r="F140" t="n">
+        <v>97.56210816385384</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>46034.8326760151</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4945</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>96.70949385352938</v>
+      </c>
+      <c r="F141" t="n">
+        <v>98.25411336010278</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>46034.83267640142</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4978</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>96.81060682292475</v>
+      </c>
+      <c r="F142" t="n">
+        <v>97.42301644168056</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>46034.83267680136</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5015</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>96.67053142647808</v>
+      </c>
+      <c r="F143" t="n">
+        <v>97.83539569625587</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>46034.83267721911</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5047</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>96.23772556777817</v>
+      </c>
+      <c r="F144" t="n">
+        <v>97.88133244283115</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>46034.83267759305</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5081</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>96.47176438103942</v>
+      </c>
+      <c r="F145" t="n">
+        <v>97.81561760170116</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>46034.83267801099</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5118</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>95.9342986251087</v>
+      </c>
+      <c r="F146" t="n">
+        <v>97.55455507994218</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>46034.83267839904</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5150</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>96.5428639009874</v>
+      </c>
+      <c r="F147" t="n">
+        <v>97.20711234813743</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>46034.832678812</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5185</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>96.53800266916062</v>
+      </c>
+      <c r="F148" t="n">
+        <v>97.07597583300154</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>46034.83267921361</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5220</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>96.26194046717494</v>
+      </c>
+      <c r="F149" t="n">
+        <v>97.96585339972022</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>46034.83267961969</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5253</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>96.06180415318848</v>
+      </c>
+      <c r="F150" t="n">
+        <v>97.93723638022851</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>46034.83268003205</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>96.47601282291328</v>
+      </c>
+      <c r="F151" t="n">
+        <v>97.44487968959069</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>46034.83268044528</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5329</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>95.74035725626365</v>
+      </c>
+      <c r="F152" t="n">
+        <v>97.89706038818838</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>46034.83268085868</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5362</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>95.80735152867875</v>
+      </c>
+      <c r="F153" t="n">
+        <v>97.54610375531549</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>46034.83268126258</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>96.33893947255928</v>
+      </c>
+      <c r="F154" t="n">
+        <v>96.95659009820518</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>46034.83268166218</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5435</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>95.95261979466537</v>
+      </c>
+      <c r="F155" t="n">
+        <v>97.37094168013368</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>46034.83268206807</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5468</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>96.04764194025564</v>
+      </c>
+      <c r="F156" t="n">
+        <v>97.74040254170718</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>46034.8326824863</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5503</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>96.18295886229137</v>
+      </c>
+      <c r="F157" t="n">
+        <v>96.94640520755183</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>46034.83268289984</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5541</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>96.09896780194462</v>
+      </c>
+      <c r="F158" t="n">
+        <v>96.91595195262407</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>46034.83268330236</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5574</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>96.08446849960222</v>
+      </c>
+      <c r="F159" t="n">
+        <v>97.70697175216858</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>46034.83268370168</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5611</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>95.51073948758206</v>
+      </c>
+      <c r="F160" t="n">
+        <v>97.17544669214635</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>46034.83268415038</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5645</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>95.99467345241059</v>
+      </c>
+      <c r="F161" t="n">
+        <v>97.60997043775086</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>46034.83268452795</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5680</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>95.93616630505304</v>
+      </c>
+      <c r="F162" t="n">
+        <v>97.49700103833449</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>46034.83268492373</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5717</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>94.97136157706518</v>
+      </c>
+      <c r="F163" t="n">
+        <v>97.16074111301579</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>46034.83268531411</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5748</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>95.02098111056888</v>
+      </c>
+      <c r="F164" t="n">
+        <v>97.54824137700587</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>46034.83268570939</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5786</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>95.14985094893207</v>
+      </c>
+      <c r="F165" t="n">
+        <v>97.52700105077055</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>46034.83268613845</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5818</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>95.35920910615218</v>
+      </c>
+      <c r="F166" t="n">
+        <v>97.00409482036366</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>46034.83268652655</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5853</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>95.70770679326284</v>
+      </c>
+      <c r="F167" t="n">
+        <v>97.33517351070171</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>46034.83268694005</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5891</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>95.18912965505895</v>
+      </c>
+      <c r="F168" t="n">
+        <v>96.65033710374372</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>46034.83268734065</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5923</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>94.7882950396947</v>
+      </c>
+      <c r="F169" t="n">
+        <v>96.59504477703403</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>46034.83268776169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5961</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>95.08648741760582</v>
+      </c>
+      <c r="F170" t="n">
+        <v>96.66361037718663</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>46034.83268818604</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5999</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>94.76705842218531</v>
+      </c>
+      <c r="F171" t="n">
+        <v>97.11771374616949</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>46034.83268858368</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6029</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>95.32696906880518</v>
+      </c>
+      <c r="F172" t="n">
+        <v>96.92494440747053</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>46034.83268900269</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6063</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>95.24800926209083</v>
+      </c>
+      <c r="F173" t="n">
+        <v>96.50850447052515</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>46034.83268939635</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>95.3037672012195</v>
+      </c>
+      <c r="F174" t="n">
+        <v>97.20736884591687</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>46034.83268982716</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6148</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>95.22947534661134</v>
+      </c>
+      <c r="F175" t="n">
+        <v>96.80208743040114</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>46034.83269038492</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6188</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>94.43019550562029</v>
+      </c>
+      <c r="F176" t="n">
+        <v>96.92568288587609</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>46034.8326908083</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6223</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>94.48501070960531</v>
+      </c>
+      <c r="F177" t="n">
+        <v>96.37507919212752</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>46034.8326912177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6260</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>94.58220545519956</v>
+      </c>
+      <c r="F178" t="n">
+        <v>96.46161303888842</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>46034.83269165574</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6296</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>94.47583609473402</v>
+      </c>
+      <c r="F179" t="n">
+        <v>96.42748886008999</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>46034.83269208038</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6333</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>94.92759076516971</v>
+      </c>
+      <c r="F180" t="n">
+        <v>97.12583194531331</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>46034.83269247857</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6367</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>94.43754152115478</v>
+      </c>
+      <c r="F181" t="n">
+        <v>96.87621403744173</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>46034.83269290294</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6406</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>94.1069433201899</v>
+      </c>
+      <c r="F182" t="n">
+        <v>96.78792620926235</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>46034.83269330709</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6438</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>94.75096347559104</v>
+      </c>
+      <c r="F183" t="n">
+        <v>96.17886265659038</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>46034.8326937494</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6483</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>94.1353528914897</v>
+      </c>
+      <c r="F184" t="n">
+        <v>96.40458930875964</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>46034.83269418029</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6517</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>94.38446546218958</v>
+      </c>
+      <c r="F185" t="n">
+        <v>96.58303557590106</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>46034.83269459354</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6551</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>94.83695627598959</v>
+      </c>
+      <c r="F186" t="n">
+        <v>96.76750309948176</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>46034.8326950313</v>
+      </c>
+      <c r="B187" t="n">
+        <v>6586</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>94.21514200600477</v>
+      </c>
+      <c r="F187" t="n">
+        <v>96.16491372867956</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>46034.83269545282</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6623</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>94.78493787190922</v>
+      </c>
+      <c r="F188" t="n">
+        <v>96.32741820867663</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>46034.83269585965</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6656</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>94.44943662274635</v>
+      </c>
+      <c r="F189" t="n">
+        <v>96.23728404590302</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>46034.83269629152</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6694</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>93.93294832777123</v>
+      </c>
+      <c r="F190" t="n">
+        <v>96.1568612980484</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>46034.83269673355</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6733</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>94.51243226638422</v>
+      </c>
+      <c r="F191" t="n">
+        <v>96.59560740363683</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>46034.83269712784</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6770</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>94.14893388193057</v>
+      </c>
+      <c r="F192" t="n">
+        <v>96.52685721376727</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>46034.83269758541</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6807</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>94.16959305322912</v>
+      </c>
+      <c r="F193" t="n">
+        <v>96.50223556375515</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>46034.83269798698</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6844</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>94.33263451494146</v>
+      </c>
+      <c r="F194" t="n">
+        <v>96.17212908692723</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>46034.83269842269</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6885</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>93.88445696909004</v>
+      </c>
+      <c r="F195" t="n">
+        <v>96.69736638180743</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>46034.83269887699</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6921</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>94.47830365856667</v>
+      </c>
+      <c r="F196" t="n">
+        <v>96.01374768607765</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>46034.83269930098</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6956</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>94.02192468035368</v>
+      </c>
+      <c r="F197" t="n">
+        <v>96.62594881267374</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>46034.83269971878</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6994</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>93.62522722641692</v>
+      </c>
+      <c r="F198" t="n">
+        <v>96.47769964271679</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>46034.83270016141</v>
+      </c>
+      <c r="B199" t="n">
+        <v>7031</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>93.58040276910894</v>
+      </c>
+      <c r="F199" t="n">
+        <v>96.45284361038921</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>46034.8327005762</v>
+      </c>
+      <c r="B200" t="n">
+        <v>7068</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>93.99752803250533</v>
+      </c>
+      <c r="F200" t="n">
+        <v>96.47055155595325</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>46034.83270101773</v>
+      </c>
+      <c r="B201" t="n">
+        <v>7104</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>93.61451418121534</v>
+      </c>
+      <c r="F201" t="n">
+        <v>96.21889728679069</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>46034.83270144204</v>
+      </c>
+      <c r="B202" t="n">
+        <v>7141</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>93.95936736265725</v>
+      </c>
+      <c r="F202" t="n">
+        <v>96.00089149453372</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>46034.83270186638</v>
+      </c>
+      <c r="B203" t="n">
+        <v>7179</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>93.61999794296858</v>
+      </c>
+      <c r="F203" t="n">
+        <v>96.46244579349516</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>46034.83270230136</v>
+      </c>
+      <c r="B204" t="n">
+        <v>7217</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>93.48102299097211</v>
+      </c>
+      <c r="F204" t="n">
+        <v>96.3848269101042</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>46034.83270275217</v>
+      </c>
+      <c r="B205" t="n">
+        <v>7253</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>94.17412649876296</v>
+      </c>
+      <c r="F205" t="n">
+        <v>96.3235989442107</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>46034.83270317726</v>
+      </c>
+      <c r="B206" t="n">
+        <v>7294</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>93.85632148259974</v>
+      </c>
+      <c r="F206" t="n">
+        <v>96.32364446059013</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>46034.83270360811</v>
+      </c>
+      <c r="B207" t="n">
+        <v>7327</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>93.37891765527225</v>
+      </c>
+      <c r="F207" t="n">
+        <v>96.32655603182999</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>46034.83270403501</v>
+      </c>
+      <c r="B208" t="n">
+        <v>7368</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>94.1072494483238</v>
+      </c>
+      <c r="F208" t="n">
+        <v>96.58551627698516</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>46034.83270445969</v>
+      </c>
+      <c r="B209" t="n">
+        <v>7401</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>93.67626143818269</v>
+      </c>
+      <c r="F209" t="n">
+        <v>96.67744264147485</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>46034.83270486038</v>
+      </c>
+      <c r="B210" t="n">
+        <v>7440</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>94.00781161498038</v>
+      </c>
+      <c r="F210" t="n">
+        <v>96.43875682539621</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>46034.83270530167</v>
+      </c>
+      <c r="B211" t="n">
+        <v>7475</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>93.28808195905151</v>
+      </c>
+      <c r="F211" t="n">
+        <v>96.20509723299537</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>46034.83270573802</v>
+      </c>
+      <c r="B212" t="n">
+        <v>7518</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>93.28879315872091</v>
+      </c>
+      <c r="F212" t="n">
+        <v>96.85552507465204</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>46034.83270616925</v>
+      </c>
+      <c r="B213" t="n">
+        <v>7551</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>94.14230834005484</v>
+      </c>
+      <c r="F213" t="n">
+        <v>95.93199712346025</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>46034.8327066171</v>
+      </c>
+      <c r="B214" t="n">
+        <v>7591</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>94.12458790196948</v>
+      </c>
+      <c r="F214" t="n">
+        <v>95.89709830975558</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>46034.83270704528</v>
+      </c>
+      <c r="B215" t="n">
+        <v>7625</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>93.58455156707161</v>
+      </c>
+      <c r="F215" t="n">
+        <v>96.6372945727923</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>46034.83270746955</v>
+      </c>
+      <c r="B216" t="n">
+        <v>7664</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>93.9268631938909</v>
+      </c>
+      <c r="F216" t="n">
+        <v>96.85039473194645</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>46034.83270791078</v>
+      </c>
+      <c r="B217" t="n">
+        <v>7701</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>93.79317748453707</v>
+      </c>
+      <c r="F217" t="n">
+        <v>96.29685455564102</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>46034.83270833118</v>
+      </c>
+      <c r="B218" t="n">
+        <v>7736</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>94.12758021835764</v>
+      </c>
+      <c r="F218" t="n">
+        <v>96.2639644864513</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>46034.83270875999</v>
+      </c>
+      <c r="B219" t="n">
+        <v>7775</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>93.99209357335748</v>
+      </c>
+      <c r="F219" t="n">
+        <v>96.79415758009586</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>46034.83270919492</v>
+      </c>
+      <c r="B220" t="n">
+        <v>7812</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>93.48665144815043</v>
+      </c>
+      <c r="F220" t="n">
+        <v>96.57679028696765</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>46034.83270963358</v>
+      </c>
+      <c r="B221" t="n">
+        <v>7848</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>93.76223139624295</v>
+      </c>
+      <c r="F221" t="n">
+        <v>96.44072580558914</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>46034.83271005291</v>
+      </c>
+      <c r="B222" t="n">
+        <v>7885</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>93.74454131113541</v>
+      </c>
+      <c r="F222" t="n">
+        <v>96.25702099085635</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>46034.83271047343</v>
+      </c>
+      <c r="B223" t="n">
+        <v>7924</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>93.26080842036404</v>
+      </c>
+      <c r="F223" t="n">
+        <v>96.45504745122889</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>46034.83271090914</v>
+      </c>
+      <c r="B224" t="n">
+        <v>7957</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>93.60320610378589</v>
+      </c>
+      <c r="F224" t="n">
+        <v>96.65498851084128</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>46034.83271136659</v>
+      </c>
+      <c r="B225" t="n">
+        <v>7998</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>93.28935690117709</v>
+      </c>
+      <c r="F225" t="n">
+        <v>95.94148205989937</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>46034.83271178047</v>
+      </c>
+      <c r="B226" t="n">
+        <v>8036</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>93.08335184798079</v>
+      </c>
+      <c r="F226" t="n">
+        <v>96.24673599861759</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>46034.83271221573</v>
+      </c>
+      <c r="B227" t="n">
+        <v>8071</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>93.72839025504004</v>
+      </c>
+      <c r="F227" t="n">
+        <v>96.50481711200432</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>46034.83271264556</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8109</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>93.58225560969147</v>
+      </c>
+      <c r="F228" t="n">
+        <v>96.79568541938794</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>46034.83271305887</v>
+      </c>
+      <c r="B229" t="n">
+        <v>8146</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>93.29405894234485</v>
+      </c>
+      <c r="F229" t="n">
+        <v>96.33105327949481</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>46034.83271349267</v>
+      </c>
+      <c r="B230" t="n">
+        <v>8187</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>93.31906666411609</v>
+      </c>
+      <c r="F230" t="n">
+        <v>96.9361966577025</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>46034.83271392477</v>
+      </c>
+      <c r="B231" t="n">
+        <v>8224</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>93.76617397731525</v>
+      </c>
+      <c r="F231" t="n">
+        <v>96.12612754698239</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>46034.83271437819</v>
+      </c>
+      <c r="B232" t="n">
+        <v>8261</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>93.84916342763495</v>
+      </c>
+      <c r="F232" t="n">
+        <v>96.44820724128992</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>46034.83271481554</v>
+      </c>
+      <c r="B233" t="n">
+        <v>8296</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>93.80515764746036</v>
+      </c>
+      <c r="F233" t="n">
+        <v>96.92904456733982</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>46034.83271524686</v>
+      </c>
+      <c r="B234" t="n">
+        <v>8333</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>93.05501367680296</v>
+      </c>
+      <c r="F234" t="n">
+        <v>96.26783952813059</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>46034.83271566098</v>
+      </c>
+      <c r="B235" t="n">
+        <v>8378</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>93.14130768098698</v>
+      </c>
+      <c r="F235" t="n">
+        <v>96.11214051849416</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>46034.83271611328</v>
+      </c>
+      <c r="B236" t="n">
+        <v>8407</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>93.64019608265474</v>
+      </c>
+      <c r="F236" t="n">
+        <v>96.80076786728969</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>46034.8327165728</v>
+      </c>
+      <c r="B237" t="n">
+        <v>8446</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>93.09396901767599</v>
+      </c>
+      <c r="F237" t="n">
+        <v>96.8575722614693</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>46034.83271698161</v>
+      </c>
+      <c r="B238" t="n">
+        <v>8485</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>93.45098968846224</v>
+      </c>
+      <c r="F238" t="n">
+        <v>96.36999844351361</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>46034.83271742365</v>
+      </c>
+      <c r="B239" t="n">
+        <v>8520</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>93.27061985193913</v>
+      </c>
+      <c r="F239" t="n">
+        <v>97.02055673036381</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>46034.83271785066</v>
+      </c>
+      <c r="B240" t="n">
+        <v>8556</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>93.11482905315295</v>
+      </c>
+      <c r="F240" t="n">
+        <v>96.68080973735233</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>46034.8327182516</v>
+      </c>
+      <c r="B241" t="n">
+        <v>8594</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>93.35326577351536</v>
+      </c>
+      <c r="F241" t="n">
+        <v>97.01284046250181</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>46034.83271869802</v>
+      </c>
+      <c r="B242" t="n">
+        <v>8633</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>93.80252308846298</v>
+      </c>
+      <c r="F242" t="n">
+        <v>96.53881679402444</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>46034.83271914221</v>
+      </c>
+      <c r="B243" t="n">
+        <v>8672</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>93.67675623710151</v>
+      </c>
+      <c r="F243" t="n">
+        <v>96.91594657039016</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>46034.83271954818</v>
+      </c>
+      <c r="B244" t="n">
+        <v>8709</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>93.40736320284732</v>
+      </c>
+      <c r="F244" t="n">
+        <v>96.56717019753695</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>46034.83271998817</v>
+      </c>
+      <c r="B245" t="n">
+        <v>8744</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>93.23946712768051</v>
+      </c>
+      <c r="F245" t="n">
+        <v>96.95062935028952</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>46034.83272042331</v>
+      </c>
+      <c r="B246" t="n">
+        <v>8783</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>93.32728952340514</v>
+      </c>
+      <c r="F246" t="n">
+        <v>96.61586835858445</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>46034.8327208893</v>
+      </c>
+      <c r="B247" t="n">
+        <v>8820</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>93.17886630102468</v>
+      </c>
+      <c r="F247" t="n">
+        <v>97.29140523342133</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>46034.83272129099</v>
+      </c>
+      <c r="B248" t="n">
+        <v>8858</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>94.00856285116862</v>
+      </c>
+      <c r="F248" t="n">
+        <v>97.2791358295916</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>46034.83272172303</v>
+      </c>
+      <c r="B249" t="n">
+        <v>8898</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>93.76736247166777</v>
+      </c>
+      <c r="F249" t="n">
+        <v>96.82189525451918</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>46034.83272216997</v>
+      </c>
+      <c r="B250" t="n">
+        <v>8934</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>93.65066908266905</v>
+      </c>
+      <c r="F250" t="n">
+        <v>97.39552541080602</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>46034.83272261672</v>
+      </c>
+      <c r="B251" t="n">
+        <v>8969</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>94.1110456856899</v>
+      </c>
+      <c r="F251" t="n">
+        <v>97.12360718375149</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>46034.83272301005</v>
+      </c>
+      <c r="B252" t="n">
+        <v>9007</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>93.9690397864932</v>
+      </c>
+      <c r="F252" t="n">
+        <v>96.79790954436942</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>46034.83272346878</v>
+      </c>
+      <c r="B253" t="n">
+        <v>9043</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>93.61606587412892</v>
+      </c>
+      <c r="F253" t="n">
+        <v>96.65971730967178</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>46034.83272389377</v>
+      </c>
+      <c r="B254" t="n">
+        <v>9082</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>93.59231265610029</v>
+      </c>
+      <c r="F254" t="n">
+        <v>97.29466091909835</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>46034.83272432493</v>
+      </c>
+      <c r="B255" t="n">
+        <v>9123</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>93.70673978312004</v>
+      </c>
+      <c r="F255" t="n">
+        <v>97.42085984363416</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>46034.83272476778</v>
+      </c>
+      <c r="B256" t="n">
+        <v>9158</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>93.55231970060777</v>
+      </c>
+      <c r="F256" t="n">
+        <v>97.31138154714726</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>46034.83272519639</v>
+      </c>
+      <c r="B257" t="n">
+        <v>9198</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>94.07611998923953</v>
+      </c>
+      <c r="F257" t="n">
+        <v>97.55080960909632</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>46034.83272563322</v>
+      </c>
+      <c r="B258" t="n">
+        <v>9233</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>93.85248900168608</v>
+      </c>
+      <c r="F258" t="n">
+        <v>97.63714099512441</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>46034.83272606716</v>
+      </c>
+      <c r="B259" t="n">
+        <v>9269</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>93.86760502912384</v>
+      </c>
+      <c r="F259" t="n">
+        <v>96.83684862478536</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>46034.8327264965</v>
+      </c>
+      <c r="B260" t="n">
+        <v>9307</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>93.57384822631043</v>
+      </c>
+      <c r="F260" t="n">
+        <v>96.93963859369653</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>46034.83272691951</v>
+      </c>
+      <c r="B261" t="n">
+        <v>9344</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>93.99927383516506</v>
+      </c>
+      <c r="F261" t="n">
+        <v>97.69295734028138</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>46034.83272736598</v>
+      </c>
+      <c r="B262" t="n">
+        <v>9385</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>94.22327091952303</v>
+      </c>
+      <c r="F262" t="n">
+        <v>96.90018533644991</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>46034.83272784198</v>
+      </c>
+      <c r="B263" t="n">
+        <v>9425</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>94.12602051818699</v>
+      </c>
+      <c r="F263" t="n">
+        <v>97.03726268693372</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>46034.83272825141</v>
+      </c>
+      <c r="B264" t="n">
+        <v>9460</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>93.69331241183514</v>
+      </c>
+      <c r="F264" t="n">
+        <v>97.55606926111842</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>46034.8327287225</v>
+      </c>
+      <c r="B265" t="n">
+        <v>9499</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>94.05463821289788</v>
+      </c>
+      <c r="F265" t="n">
+        <v>97.79630819326306</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>46034.83272914678</v>
+      </c>
+      <c r="B266" t="n">
+        <v>9537</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>93.66513831784208</v>
+      </c>
+      <c r="F266" t="n">
+        <v>97.7217556350903</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>46034.83272967426</v>
+      </c>
+      <c r="B267" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>94.23369395851267</v>
+      </c>
+      <c r="F267" t="n">
+        <v>97.56621086362239</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>46034.83273023699</v>
+      </c>
+      <c r="B268" t="n">
+        <v>9626</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>94.02398535886539</v>
+      </c>
+      <c r="F268" t="n">
+        <v>97.92744914385221</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>46034.83273072874</v>
+      </c>
+      <c r="B269" t="n">
+        <v>9672</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>93.91004604272665</v>
+      </c>
+      <c r="F269" t="n">
+        <v>98.06107956289094</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>46034.83273120518</v>
+      </c>
+      <c r="B270" t="n">
+        <v>9715</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>93.62467528966113</v>
+      </c>
+      <c r="F270" t="n">
+        <v>98.08643135474047</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>46034.83273165547</v>
+      </c>
+      <c r="B271" t="n">
+        <v>9751</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>94.60196633445814</v>
+      </c>
+      <c r="F271" t="n">
+        <v>97.30893893757661</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>46034.83273205252</v>
+      </c>
+      <c r="B272" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>94.66792591003869</v>
+      </c>
+      <c r="F272" t="n">
+        <v>97.70963477991134</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>46034.83273249855</v>
+      </c>
+      <c r="B273" t="n">
+        <v>9824</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>93.94281722184569</v>
+      </c>
+      <c r="F273" t="n">
+        <v>97.87848508757141</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>46034.83273291582</v>
+      </c>
+      <c r="B274" t="n">
+        <v>9867</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>93.93576719488119</v>
+      </c>
+      <c r="F274" t="n">
+        <v>98.23105972422633</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>46034.83273337378</v>
+      </c>
+      <c r="B275" t="n">
+        <v>9899</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>94.31764145067567</v>
+      </c>
+      <c r="F275" t="n">
+        <v>98.13731457176061</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>46034.83273377692</v>
+      </c>
+      <c r="B276" t="n">
+        <v>9936</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>94.17743612047381</v>
+      </c>
+      <c r="F276" t="n">
+        <v>97.93683480794405</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>46034.83273420376</v>
+      </c>
+      <c r="B277" t="n">
+        <v>9973</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>94.18940689467361</v>
+      </c>
+      <c r="F277" t="n">
+        <v>97.70865490244699</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>46034.83273465758</v>
+      </c>
+      <c r="B278" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>94.37903153109339</v>
+      </c>
+      <c r="F278" t="n">
+        <v>97.99145316870836</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>46034.8327350886</v>
+      </c>
+      <c r="B279" t="n">
+        <v>10048</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>93.99976700187817</v>
+      </c>
+      <c r="F279" t="n">
+        <v>98.52076409364857</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>46034.83273553407</v>
+      </c>
+      <c r="B280" t="n">
+        <v>10087</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>94.40765784478297</v>
+      </c>
+      <c r="F280" t="n">
+        <v>98.42677276148163</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>46034.83273596498</v>
+      </c>
+      <c r="B281" t="n">
+        <v>10126</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>94.88930717297819</v>
+      </c>
+      <c r="F281" t="n">
+        <v>98.00475050336567</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>46034.83273640562</v>
+      </c>
+      <c r="B282" t="n">
+        <v>10159</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>94.4269029598675</v>
+      </c>
+      <c r="F282" t="n">
+        <v>98.24475883347803</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>46034.83273683943</v>
+      </c>
+      <c r="B283" t="n">
+        <v>10200</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>94.27256605996247</v>
+      </c>
+      <c r="F283" t="n">
+        <v>97.87643316900913</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>46034.83273725909</v>
+      </c>
+      <c r="B284" t="n">
+        <v>10237</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>94.34873210266798</v>
+      </c>
+      <c r="F284" t="n">
+        <v>98.71117567191968</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>46034.83273769677</v>
+      </c>
+      <c r="B285" t="n">
+        <v>10274</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" t="n">
+        <v>94.70732756290533</v>
+      </c>
+      <c r="F285" t="n">
+        <v>98.24405458571022</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>46034.83273811988</v>
+      </c>
+      <c r="B286" t="n">
+        <v>10308</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>94.31948388212002</v>
+      </c>
+      <c r="F286" t="n">
+        <v>98.20444578044004</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>46034.83273858398</v>
+      </c>
+      <c r="B287" t="n">
+        <v>10355</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>94.59033211322614</v>
+      </c>
+      <c r="F287" t="n">
+        <v>98.76133452805674</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>46034.83273904999</v>
+      </c>
+      <c r="B288" t="n">
+        <v>10392</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>94.75326499730784</v>
+      </c>
+      <c r="F288" t="n">
+        <v>98.63571412026496</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>46034.83273949078</v>
+      </c>
+      <c r="B289" t="n">
+        <v>10425</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>94.98141039716184</v>
+      </c>
+      <c r="F289" t="n">
+        <v>98.29020742126529</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>46034.83273993761</v>
+      </c>
+      <c r="B290" t="n">
+        <v>10471</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>95.16146212748325</v>
+      </c>
+      <c r="F290" t="n">
+        <v>99.05173623146605</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>46034.83274040133</v>
+      </c>
+      <c r="B291" t="n">
+        <v>10508</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>95.02823821786581</v>
+      </c>
+      <c r="F291" t="n">
+        <v>98.63193386314082</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>46034.83274085338</v>
+      </c>
+      <c r="B292" t="n">
+        <v>10549</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>94.60060585799205</v>
+      </c>
+      <c r="F292" t="n">
+        <v>98.99111241406762</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>46034.83274130827</v>
+      </c>
+      <c r="B293" t="n">
+        <v>10588</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>94.64705792081612</v>
+      </c>
+      <c r="F293" t="n">
+        <v>98.97048460226858</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>46034.83274185391</v>
+      </c>
+      <c r="B294" t="n">
+        <v>10637</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>95.02255894955333</v>
+      </c>
+      <c r="F294" t="n">
+        <v>99.23386175356524</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>46034.83274229475</v>
+      </c>
+      <c r="B295" t="n">
+        <v>10673</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>95.12294403400064</v>
+      </c>
+      <c r="F295" t="n">
+        <v>99.01357526358595</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>46034.8327427125</v>
+      </c>
+      <c r="B296" t="n">
+        <v>10708</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>94.68347979085583</v>
+      </c>
+      <c r="F296" t="n">
+        <v>98.45707376281088</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>46034.83274313574</v>
+      </c>
+      <c r="B297" t="n">
+        <v>10734</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>95.51799782705984</v>
+      </c>
+      <c r="F297" t="n">
+        <v>99.42274766418015</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>pos_from_zero</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
         <v>1</v>
       </c>
     </row>
